--- a/Waardelijsten/waardelijsten 1.0.2.xlsx
+++ b/Waardelijsten/waardelijsten 1.0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Werkbestanden\Geonovum\Waardelijsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9951D694-D2CF-41A1-A74E-DD18CC5B3ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D25106-D2EB-4E41-931F-2D1B127FAB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -3844,13 +3844,13 @@
     <t>Object dat machineleesbaar maakt dat een gebied is aangewezen door regels of beleid, gericht op het beheer van water en watersystemen.</t>
   </si>
   <si>
-    <t>Beperkingengebiedgoep</t>
-  </si>
-  <si>
-    <t>beperkingengebiedgoep</t>
-  </si>
-  <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/id/waardelijst/Beperkingengebiedgoep</t>
+    <t>Beperkingengebiedgroep</t>
+  </si>
+  <si>
+    <t>beperkingengebiedgroep</t>
+  </si>
+  <si>
+    <t>http://standaarden.omgevingswet.overheid.nl/id/waardelijst/Beperkingengebiedgroep</t>
   </si>
   <si>
     <t>Waardelijst voor attribuut groep bij het Gebiedsaanwijzingtype Beperkingengebied, dat zorgt voor filteren en weergave van de symbolisatie van Beperkingengebied op de kaart.</t>
@@ -3862,13 +3862,13 @@
     <t>installatie in waterstaatswerk</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgoep/id/concept/InstallatieInWaterstaatswerk</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgroep/id/concept/InstallatieInWaterstaatswerk</t>
   </si>
   <si>
     <t>Waarde voor attribuut groep bij Gebiedsaanwijzingtype Beperkingengebied voor het aanwijzen van een gebied waar beperkingen vanwege een installatie in een waterstaatswerk gelden.</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/id/conceptscheme/Beperkingengebiedgoep</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/id/conceptscheme/Beperkingengebiedgroep</t>
   </si>
   <si>
     <t>vag222</t>
@@ -3880,7 +3880,7 @@
     <t>luchthaven</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgoep/id/concept/Luchthaven</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgroep/id/concept/Luchthaven</t>
   </si>
   <si>
     <t>Waarde voor attribuut groep bij Gebiedsaanwijzingtype Beperkingengebied voor het aanwijzen van een gebied waar beperkingen vanwege een luchthaven gelden.</t>
@@ -3895,7 +3895,7 @@
     <t>molen</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgoep/id/concept/Molen</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgroep/id/concept/Molen</t>
   </si>
   <si>
     <t>Waarde voor attribuut groep bij Gebiedsaanwijzingtype Beperkingengebied voor het aanwijzen van een gebied waar beperkingen vanwege een molen gelden.</t>
@@ -3904,7 +3904,7 @@
     <t>vag206</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgoep/id/concept/Overig</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgroep/id/concept/Overig</t>
   </si>
   <si>
     <t>Waarde voor attribuut groep bij Gebiedsaanwijzingtype Beperkingengebied voor het aanwijzen van een gebied waar beperkingen vanwege vanwege de aanwezigheid van een werk of object gelden, die niet vallen onder een van de overige waarden.</t>
@@ -3916,7 +3916,7 @@
     <t>spoorweg</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgoep/id/concept/Spoorweg</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgroep/id/concept/Spoorweg</t>
   </si>
   <si>
     <t>Waarde voor attribuut groep bij Gebiedsaanwijzingtype Beperkingengebied voor het aanwijzen van een gebied waar beperkingen vanwege een spoorweg gelden.</t>
@@ -3931,7 +3931,7 @@
     <t>waterstaatswerk</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgoep/id/concept/Waterstaatswerk</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgroep/id/concept/Waterstaatswerk</t>
   </si>
   <si>
     <t>Waarde voor attribuut groep bij Gebiedsaanwijzingtype Beperkingengebied voor het aanwijzen van een gebied waar beperkingen vanwege een waterstaatswerk gelden.</t>
@@ -3946,7 +3946,7 @@
     <t>weg</t>
   </si>
   <si>
-    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgoep/id/concept/Weg</t>
+    <t>http://standaarden.omgevingswet.overheid.nl/beperkingengebiedgroep/id/concept/Weg</t>
   </si>
   <si>
     <t>Waarde voor attribuut groep bij Gebiedsaanwijzingtype Beperkingengebied voor het aanwijzen van een gebied waar beperkingen vanwege een weg gelden.</t>
@@ -8419,13 +8419,7 @@
     <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -8476,21 +8470,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:L741" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:L741"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Waardelijst" dataDxfId="13"/>
-    <tableColumn id="2" name="Waarde" dataDxfId="12"/>
-    <tableColumn id="3" name="Label" dataDxfId="11"/>
-    <tableColumn id="4" name="URI" dataDxfId="10"/>
-    <tableColumn id="5" name="Type" dataDxfId="9"/>
-    <tableColumn id="6" name="Omschrijving" dataDxfId="8"/>
-    <tableColumn id="7" name="Definitie" dataDxfId="7"/>
-    <tableColumn id="8" name="Toelichting" dataDxfId="6"/>
-    <tableColumn id="9" name="Bron" dataDxfId="5"/>
-    <tableColumn id="10" name="Domein" dataDxfId="4"/>
-    <tableColumn id="11" name="Specialisatie van" dataDxfId="3"/>
-    <tableColumn id="12" name="Symboolcode" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:J741" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:J741"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Waardelijst" dataDxfId="11"/>
+    <tableColumn id="2" name="Waarde" dataDxfId="10"/>
+    <tableColumn id="3" name="Label" dataDxfId="9"/>
+    <tableColumn id="4" name="URI" dataDxfId="8"/>
+    <tableColumn id="5" name="Type" dataDxfId="7"/>
+    <tableColumn id="6" name="Omschrijving" dataDxfId="6"/>
+    <tableColumn id="7" name="Definitie" dataDxfId="5"/>
+    <tableColumn id="8" name="Toelichting" dataDxfId="4"/>
+    <tableColumn id="9" name="Bron" dataDxfId="3"/>
+    <tableColumn id="10" name="Domein" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -8804,9 +8796,8 @@
     <col min="4" max="4" width="125.77734375" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
     <col min="6" max="8" width="75.77734375" customWidth="1"/>
-    <col min="9" max="9" width="125.77734375" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
-    <col min="11" max="11" width="125.77734375" customWidth="1"/>
+    <col min="9" max="9" width="25.77734375" customWidth="1"/>
+    <col min="10" max="11" width="125.77734375" customWidth="1"/>
     <col min="12" max="12" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8841,10 +8832,10 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8859,8 +8850,6 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -8883,8 +8872,6 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -8907,8 +8894,7 @@
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8933,8 +8919,7 @@
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8959,8 +8944,7 @@
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8987,8 +8971,7 @@
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9013,8 +8996,7 @@
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9041,8 +9023,7 @@
       <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9069,8 +9050,7 @@
       <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9097,8 +9077,7 @@
       <c r="J11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9123,8 +9102,7 @@
       <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9151,8 +9129,7 @@
       <c r="J13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9177,8 +9154,7 @@
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9203,8 +9179,7 @@
       <c r="J15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9229,8 +9204,7 @@
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9255,8 +9229,7 @@
       <c r="J17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9281,8 +9254,7 @@
       <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -9307,12 +9279,11 @@
       <c r="J19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -9333,8 +9304,7 @@
       <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9361,8 +9331,7 @@
       <c r="J21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9389,12 +9358,11 @@
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>105</v>
@@ -9417,8 +9385,7 @@
       <c r="J23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9443,8 +9410,7 @@
       <c r="J24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
+      <c r="L24" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9469,8 +9435,7 @@
       <c r="J25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
+      <c r="L25" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9495,12 +9460,11 @@
       <c r="J26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
+      <c r="L26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>125</v>
@@ -9521,12 +9485,11 @@
       <c r="J27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
+      <c r="L27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>130</v>
@@ -9547,8 +9510,7 @@
       <c r="J28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9573,8 +9535,7 @@
       <c r="J29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
+      <c r="L29" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9599,12 +9560,11 @@
       <c r="J30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
+      <c r="L30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>145</v>
@@ -9625,12 +9585,11 @@
       <c r="J31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
+      <c r="L31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>149</v>
@@ -9651,8 +9610,7 @@
       <c r="J32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1" t="s">
+      <c r="L32" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9679,8 +9637,7 @@
       <c r="J33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1" t="s">
+      <c r="L33" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9707,12 +9664,11 @@
       <c r="J34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
+      <c r="L34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>161</v>
@@ -9733,12 +9689,11 @@
       <c r="J35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
+      <c r="L35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>166</v>
@@ -9759,8 +9714,7 @@
       <c r="J36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
+      <c r="L36" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9785,12 +9739,11 @@
       <c r="J37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1" t="s">
+      <c r="L37" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>176</v>
@@ -9811,12 +9764,11 @@
       <c r="J38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1" t="s">
+      <c r="L38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>181</v>
@@ -9837,8 +9789,7 @@
       <c r="J39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1" t="s">
+      <c r="L39" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9865,8 +9816,7 @@
       <c r="J40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9893,8 +9843,7 @@
       <c r="J41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9919,8 +9868,7 @@
       <c r="J42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
+      <c r="L42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9945,8 +9893,7 @@
       <c r="J43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1" t="s">
+      <c r="L43" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9971,8 +9918,7 @@
       <c r="J44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1" t="s">
+      <c r="L44" t="s">
         <v>207</v>
       </c>
     </row>
@@ -9999,8 +9945,7 @@
       <c r="J45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1" t="s">
+      <c r="L45" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10025,8 +9970,7 @@
       <c r="J46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1" t="s">
+      <c r="L46" t="s">
         <v>170</v>
       </c>
     </row>
@@ -10053,8 +9997,7 @@
       <c r="J47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1" t="s">
+      <c r="L47" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10081,8 +10024,7 @@
       <c r="J48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1" t="s">
+      <c r="L48" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10107,12 +10049,11 @@
       <c r="J49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1" t="s">
+      <c r="L49" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>229</v>
@@ -10133,12 +10074,11 @@
       <c r="J50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1" t="s">
+      <c r="L50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>234</v>
@@ -10161,8 +10101,7 @@
       <c r="J51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1" t="s">
+      <c r="L51" t="s">
         <v>238</v>
       </c>
     </row>
@@ -10187,8 +10126,7 @@
       <c r="J52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1" t="s">
+      <c r="L52" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10215,8 +10153,7 @@
       <c r="J53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
+      <c r="L53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10241,8 +10178,7 @@
       <c r="J54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1" t="s">
+      <c r="L54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10269,8 +10205,7 @@
       <c r="J55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1" t="s">
+      <c r="L55" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10297,12 +10232,11 @@
       <c r="J56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1" t="s">
+      <c r="L56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>260</v>
@@ -10323,12 +10257,11 @@
       <c r="J57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1" t="s">
+      <c r="L57" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>264</v>
@@ -10349,8 +10282,7 @@
       <c r="J58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1" t="s">
+      <c r="L58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10375,12 +10307,11 @@
       <c r="J59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1" t="s">
+      <c r="L59" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>273</v>
@@ -10401,8 +10332,7 @@
       <c r="J60" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1" t="s">
+      <c r="L60" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10427,8 +10357,7 @@
       <c r="J61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1" t="s">
+      <c r="L61" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10453,8 +10382,7 @@
       <c r="J62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1" t="s">
+      <c r="L62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10481,8 +10409,7 @@
       <c r="J63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1" t="s">
+      <c r="L63" t="s">
         <v>110</v>
       </c>
     </row>
@@ -10509,8 +10436,7 @@
       <c r="J64" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1" t="s">
+      <c r="L64" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10535,8 +10461,7 @@
       <c r="J65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1" t="s">
+      <c r="L65" t="s">
         <v>298</v>
       </c>
     </row>
@@ -10561,8 +10486,7 @@
       <c r="J66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1" t="s">
+      <c r="L66" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10589,12 +10513,11 @@
       <c r="J67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1" t="s">
+      <c r="L67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>307</v>
@@ -10615,8 +10538,7 @@
       <c r="J68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1" t="s">
+      <c r="L68" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10643,8 +10565,7 @@
       <c r="J69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1" t="s">
+      <c r="L69" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10669,8 +10590,7 @@
       <c r="J70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1" t="s">
+      <c r="L70" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10697,8 +10617,7 @@
       <c r="J71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1" t="s">
+      <c r="L71" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10723,8 +10642,7 @@
       <c r="J72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1" t="s">
+      <c r="L72" t="s">
         <v>180</v>
       </c>
     </row>
@@ -10749,12 +10667,11 @@
       <c r="J73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1" t="s">
+      <c r="L73" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>331</v>
@@ -10777,12 +10694,11 @@
       <c r="J74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1" t="s">
+      <c r="L74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>335</v>
@@ -10803,8 +10719,7 @@
       <c r="J75" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1" t="s">
+      <c r="L75" t="s">
         <v>339</v>
       </c>
     </row>
@@ -10819,8 +10734,6 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
@@ -10843,8 +10756,6 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -10871,10 +10782,8 @@
       <c r="J78" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>350</v>
@@ -10897,10 +10806,8 @@
       <c r="J79" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>354</v>
@@ -10923,10 +10830,8 @@
       <c r="J80" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>358</v>
@@ -10951,10 +10856,8 @@
       <c r="J81" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>363</v>
@@ -10979,10 +10882,8 @@
       <c r="J82" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>368</v>
@@ -11007,10 +10908,8 @@
       <c r="J83" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>373</v>
@@ -11035,10 +10934,8 @@
       <c r="J84" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>378</v>
@@ -11061,10 +10958,8 @@
       <c r="J85" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -11075,10 +10970,8 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>382</v>
       </c>
@@ -11099,10 +10992,8 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>386</v>
@@ -11123,10 +11014,8 @@
       <c r="J88" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>390</v>
@@ -11147,10 +11036,8 @@
       <c r="J89" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>393</v>
@@ -11171,10 +11058,8 @@
       <c r="J90" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-    </row>
-    <row r="91" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>396</v>
@@ -11195,10 +11080,8 @@
       <c r="J91" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-    </row>
-    <row r="92" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
         <v>400</v>
@@ -11219,10 +11102,8 @@
       <c r="J92" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
         <v>403</v>
@@ -11243,10 +11124,8 @@
       <c r="J93" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-    </row>
-    <row r="94" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
         <v>406</v>
@@ -11267,10 +11146,8 @@
       <c r="J94" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-    </row>
-    <row r="95" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>409</v>
@@ -11291,10 +11168,8 @@
       <c r="J95" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>412</v>
@@ -11315,10 +11190,8 @@
       <c r="J96" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-    </row>
-    <row r="97" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -11329,10 +11202,8 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>415</v>
       </c>
@@ -11353,10 +11224,8 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>420</v>
@@ -11375,10 +11244,8 @@
       <c r="J99" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
         <v>424</v>
@@ -11397,10 +11264,8 @@
       <c r="J100" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>427</v>
@@ -11419,10 +11284,8 @@
       <c r="J101" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-    </row>
-    <row r="102" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
         <v>430</v>
@@ -11441,10 +11304,8 @@
       <c r="J102" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-    </row>
-    <row r="103" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>433</v>
@@ -11463,10 +11324,8 @@
       <c r="J103" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>436</v>
@@ -11485,10 +11344,8 @@
       <c r="J104" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-    </row>
-    <row r="105" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
         <v>439</v>
@@ -11507,10 +11364,8 @@
       <c r="J105" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-    </row>
-    <row r="106" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>442</v>
@@ -11529,10 +11384,8 @@
       <c r="J106" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>445</v>
@@ -11551,10 +11404,8 @@
       <c r="J107" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-    </row>
-    <row r="108" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
         <v>448</v>
@@ -11573,10 +11424,8 @@
       <c r="J108" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-    </row>
-    <row r="109" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>451</v>
@@ -11595,10 +11444,8 @@
       <c r="J109" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>454</v>
@@ -11617,10 +11464,8 @@
       <c r="J110" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>457</v>
@@ -11639,10 +11484,8 @@
       <c r="J111" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>460</v>
@@ -11661,10 +11504,8 @@
       <c r="J112" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-    </row>
-    <row r="113" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>463</v>
@@ -11683,10 +11524,8 @@
       <c r="J113" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-    </row>
-    <row r="114" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
         <v>466</v>
@@ -11705,10 +11544,8 @@
       <c r="J114" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-    </row>
-    <row r="115" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>469</v>
@@ -11727,10 +11564,8 @@
       <c r="J115" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-    </row>
-    <row r="116" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
         <v>472</v>
@@ -11749,10 +11584,8 @@
       <c r="J116" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-    </row>
-    <row r="117" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>475</v>
@@ -11771,10 +11604,8 @@
       <c r="J117" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-    </row>
-    <row r="118" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>478</v>
@@ -11793,10 +11624,8 @@
       <c r="J118" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-    </row>
-    <row r="119" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1" t="s">
         <v>481</v>
@@ -11815,10 +11644,8 @@
       <c r="J119" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-    </row>
-    <row r="120" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1" t="s">
         <v>484</v>
@@ -11837,10 +11664,8 @@
       <c r="J120" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-    </row>
-    <row r="121" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>487</v>
@@ -11859,10 +11684,8 @@
       <c r="J121" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-    </row>
-    <row r="122" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>490</v>
@@ -11881,10 +11704,8 @@
       <c r="J122" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-    </row>
-    <row r="123" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>493</v>
@@ -11903,10 +11724,8 @@
       <c r="J123" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-    </row>
-    <row r="124" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>496</v>
@@ -11925,10 +11744,8 @@
       <c r="J124" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-    </row>
-    <row r="125" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>499</v>
@@ -11947,10 +11764,8 @@
       <c r="J125" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-    </row>
-    <row r="126" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>502</v>
@@ -11969,10 +11784,8 @@
       <c r="J126" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-    </row>
-    <row r="127" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>505</v>
@@ -11991,10 +11804,8 @@
       <c r="J127" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-    </row>
-    <row r="128" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:10" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -12005,10 +11816,8 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-    </row>
-    <row r="129" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>508</v>
       </c>
@@ -12029,10 +11838,8 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-    </row>
-    <row r="130" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>512</v>
@@ -12053,10 +11860,8 @@
       <c r="J130" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-    </row>
-    <row r="131" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>516</v>
@@ -12077,10 +11882,8 @@
       <c r="J131" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-    </row>
-    <row r="132" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:10" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -12091,10 +11894,8 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-    </row>
-    <row r="133" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>519</v>
       </c>
@@ -12115,10 +11916,8 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-    </row>
-    <row r="134" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>523</v>
@@ -12139,10 +11938,8 @@
       <c r="J134" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-    </row>
-    <row r="135" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>527</v>
@@ -12163,10 +11960,8 @@
       <c r="J135" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-    </row>
-    <row r="136" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>530</v>
@@ -12187,10 +11982,8 @@
       <c r="J136" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-    </row>
-    <row r="137" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>533</v>
@@ -12211,10 +12004,8 @@
       <c r="J137" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-    </row>
-    <row r="138" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>536</v>
@@ -12235,10 +12026,8 @@
       <c r="J138" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-    </row>
-    <row r="139" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>539</v>
@@ -12259,10 +12048,8 @@
       <c r="J139" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-    </row>
-    <row r="140" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>542</v>
@@ -12285,10 +12072,8 @@
       <c r="J140" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-    </row>
-    <row r="141" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>546</v>
@@ -12309,10 +12094,8 @@
       <c r="J141" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-    </row>
-    <row r="142" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>549</v>
@@ -12333,10 +12116,8 @@
       <c r="J142" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
-    </row>
-    <row r="143" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>552</v>
@@ -12357,10 +12138,8 @@
       <c r="J143" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-    </row>
-    <row r="144" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>555</v>
@@ -12381,8 +12160,6 @@
       <c r="J144" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
     </row>
     <row r="145" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
@@ -12405,8 +12182,6 @@
       <c r="J145" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
     </row>
     <row r="146" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
@@ -12429,8 +12204,6 @@
       <c r="J146" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
@@ -12453,8 +12226,6 @@
       <c r="J147" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
     </row>
     <row r="148" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
@@ -12477,8 +12248,6 @@
       <c r="J148" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K148" s="1"/>
-      <c r="L148" s="1"/>
     </row>
     <row r="149" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
@@ -12501,8 +12270,6 @@
       <c r="J149" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K149" s="1"/>
-      <c r="L149" s="1"/>
     </row>
     <row r="150" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
@@ -12525,8 +12292,6 @@
       <c r="J150" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
     </row>
     <row r="151" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
@@ -12549,8 +12314,6 @@
       <c r="J151" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
     </row>
     <row r="152" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
@@ -12573,8 +12336,6 @@
       <c r="J152" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
     </row>
     <row r="153" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
@@ -12599,8 +12360,6 @@
       <c r="J153" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
     </row>
     <row r="154" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
@@ -12623,8 +12382,6 @@
       <c r="J154" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
     </row>
     <row r="155" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
@@ -12647,8 +12404,6 @@
       <c r="J155" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
     </row>
     <row r="156" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
@@ -12671,8 +12426,6 @@
       <c r="J156" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
     </row>
     <row r="157" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
@@ -12695,8 +12448,6 @@
       <c r="J157" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
     </row>
     <row r="158" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
@@ -12709,8 +12460,6 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
     </row>
     <row r="159" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
@@ -12733,8 +12482,6 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
     </row>
     <row r="160" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
@@ -12759,8 +12506,7 @@
       <c r="J160" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1" t="s">
+      <c r="L160" t="s">
         <v>608</v>
       </c>
     </row>
@@ -12785,8 +12531,7 @@
       <c r="J161" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1" t="s">
+      <c r="L161" t="s">
         <v>613</v>
       </c>
     </row>
@@ -12813,8 +12558,7 @@
       <c r="J162" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1" t="s">
+      <c r="L162" t="s">
         <v>619</v>
       </c>
     </row>
@@ -12839,8 +12583,7 @@
       <c r="J163" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1" t="s">
+      <c r="L163" t="s">
         <v>624</v>
       </c>
     </row>
@@ -12865,8 +12608,7 @@
       <c r="J164" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1" t="s">
+      <c r="L164" t="s">
         <v>629</v>
       </c>
     </row>
@@ -12891,8 +12633,7 @@
       <c r="J165" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1" t="s">
+      <c r="L165" t="s">
         <v>634</v>
       </c>
     </row>
@@ -12917,8 +12658,7 @@
       <c r="J166" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1" t="s">
+      <c r="L166" t="s">
         <v>639</v>
       </c>
     </row>
@@ -12943,8 +12683,7 @@
       <c r="J167" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1" t="s">
+      <c r="L167" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12969,8 +12708,7 @@
       <c r="J168" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1" t="s">
+      <c r="L168" t="s">
         <v>649</v>
       </c>
     </row>
@@ -12997,8 +12735,7 @@
       <c r="J169" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1" t="s">
+      <c r="L169" t="s">
         <v>655</v>
       </c>
     </row>
@@ -13025,8 +12762,7 @@
       <c r="J170" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1" t="s">
+      <c r="L170" t="s">
         <v>661</v>
       </c>
     </row>
@@ -13051,8 +12787,7 @@
       <c r="J171" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1" t="s">
+      <c r="L171" t="s">
         <v>666</v>
       </c>
     </row>
@@ -13077,8 +12812,7 @@
       <c r="J172" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1" t="s">
+      <c r="L172" t="s">
         <v>669</v>
       </c>
     </row>
@@ -13105,8 +12839,7 @@
       <c r="J173" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1" t="s">
+      <c r="L173" t="s">
         <v>675</v>
       </c>
     </row>
@@ -13131,8 +12864,7 @@
       <c r="J174" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1" t="s">
+      <c r="L174" t="s">
         <v>680</v>
       </c>
     </row>
@@ -13157,8 +12889,7 @@
       <c r="J175" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1" t="s">
+      <c r="L175" t="s">
         <v>685</v>
       </c>
     </row>
@@ -13183,8 +12914,7 @@
       <c r="J176" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1" t="s">
+      <c r="L176" t="s">
         <v>690</v>
       </c>
     </row>
@@ -13209,8 +12939,7 @@
       <c r="J177" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1" t="s">
+      <c r="L177" t="s">
         <v>695</v>
       </c>
     </row>
@@ -13235,8 +12964,7 @@
       <c r="J178" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1" t="s">
+      <c r="L178" t="s">
         <v>700</v>
       </c>
     </row>
@@ -13261,8 +12989,7 @@
       <c r="J179" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1" t="s">
+      <c r="L179" t="s">
         <v>705</v>
       </c>
     </row>
@@ -13277,8 +13004,6 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
     </row>
     <row r="181" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
@@ -13301,8 +13026,6 @@
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
     </row>
     <row r="182" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
@@ -13325,8 +13048,7 @@
       <c r="J182" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1" t="s">
+      <c r="L182" t="s">
         <v>715</v>
       </c>
     </row>
@@ -13355,8 +13077,7 @@
       <c r="J183" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1" t="s">
+      <c r="L183" t="s">
         <v>719</v>
       </c>
     </row>
@@ -13383,12 +13104,11 @@
       <c r="J184" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1" t="s">
+      <c r="L184" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>268</v>
@@ -13411,8 +13131,7 @@
       <c r="J185" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1" t="s">
+      <c r="L185" t="s">
         <v>725</v>
       </c>
     </row>
@@ -13439,8 +13158,7 @@
       <c r="J186" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1" t="s">
+      <c r="L186" t="s">
         <v>728</v>
       </c>
     </row>
@@ -13467,8 +13185,7 @@
       <c r="J187" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1" t="s">
+      <c r="L187" t="s">
         <v>731</v>
       </c>
     </row>
@@ -13493,8 +13210,7 @@
       <c r="J188" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1" t="s">
+      <c r="L188" t="s">
         <v>734</v>
       </c>
     </row>
@@ -13521,8 +13237,7 @@
       <c r="J189" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1" t="s">
+      <c r="L189" t="s">
         <v>737</v>
       </c>
     </row>
@@ -13537,8 +13252,6 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
@@ -13561,10 +13274,8 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-    </row>
-    <row r="192" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
         <v>742</v>
@@ -13585,10 +13296,8 @@
       <c r="J192" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-    </row>
-    <row r="193" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>747</v>
@@ -13609,10 +13318,8 @@
       <c r="J193" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-    </row>
-    <row r="194" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
         <v>609</v>
@@ -13631,10 +13338,8 @@
       <c r="J194" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-    </row>
-    <row r="195" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>753</v>
@@ -13653,12 +13358,11 @@
       <c r="J195" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K195" s="1" t="s">
+      <c r="K195" t="s">
         <v>751</v>
       </c>
-      <c r="L195" s="1"/>
-    </row>
-    <row r="196" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>756</v>
@@ -13677,12 +13381,11 @@
       <c r="J196" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K196" s="1" t="s">
+      <c r="K196" t="s">
         <v>751</v>
       </c>
-      <c r="L196" s="1"/>
-    </row>
-    <row r="197" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>759</v>
@@ -13701,12 +13404,11 @@
       <c r="J197" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K197" s="1" t="s">
+      <c r="K197" t="s">
         <v>751</v>
       </c>
-      <c r="L197" s="1"/>
-    </row>
-    <row r="198" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>762</v>
@@ -13725,12 +13427,11 @@
       <c r="J198" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K198" s="1" t="s">
+      <c r="K198" t="s">
         <v>751</v>
       </c>
-      <c r="L198" s="1"/>
-    </row>
-    <row r="199" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>765</v>
@@ -13749,12 +13450,11 @@
       <c r="J199" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K199" s="1" t="s">
+      <c r="K199" t="s">
         <v>751</v>
       </c>
-      <c r="L199" s="1"/>
-    </row>
-    <row r="200" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>768</v>
@@ -13773,12 +13473,11 @@
       <c r="J200" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K200" s="1" t="s">
+      <c r="K200" t="s">
         <v>751</v>
       </c>
-      <c r="L200" s="1"/>
-    </row>
-    <row r="201" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>771</v>
@@ -13797,10 +13496,8 @@
       <c r="J201" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-    </row>
-    <row r="202" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>775</v>
@@ -13821,12 +13518,11 @@
       <c r="J202" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K202" s="1" t="s">
+      <c r="K202" t="s">
         <v>773</v>
       </c>
-      <c r="L202" s="1"/>
-    </row>
-    <row r="203" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>779</v>
@@ -13847,12 +13543,11 @@
       <c r="J203" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K203" s="1" t="s">
+      <c r="K203" t="s">
         <v>773</v>
       </c>
-      <c r="L203" s="1"/>
-    </row>
-    <row r="204" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>782</v>
@@ -13873,12 +13568,11 @@
       <c r="J204" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K204" s="1" t="s">
+      <c r="K204" t="s">
         <v>773</v>
       </c>
-      <c r="L204" s="1"/>
-    </row>
-    <row r="205" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>785</v>
@@ -13899,12 +13593,11 @@
       <c r="J205" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K205" s="1" t="s">
+      <c r="K205" t="s">
         <v>773</v>
       </c>
-      <c r="L205" s="1"/>
-    </row>
-    <row r="206" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>788</v>
@@ -13925,12 +13618,11 @@
       <c r="J206" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K206" s="1" t="s">
+      <c r="K206" t="s">
         <v>773</v>
       </c>
-      <c r="L206" s="1"/>
-    </row>
-    <row r="207" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>791</v>
@@ -13951,12 +13643,11 @@
       <c r="J207" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K207" s="1" t="s">
+      <c r="K207" t="s">
         <v>773</v>
       </c>
-      <c r="L207" s="1"/>
-    </row>
-    <row r="208" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>794</v>
@@ -13977,12 +13668,11 @@
       <c r="J208" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K208" s="1" t="s">
+      <c r="K208" t="s">
         <v>773</v>
       </c>
-      <c r="L208" s="1"/>
-    </row>
-    <row r="209" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>797</v>
@@ -14003,12 +13693,11 @@
       <c r="J209" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K209" s="1" t="s">
+      <c r="K209" t="s">
         <v>773</v>
       </c>
-      <c r="L209" s="1"/>
-    </row>
-    <row r="210" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
         <v>800</v>
@@ -14029,12 +13718,11 @@
       <c r="J210" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K210" s="1" t="s">
+      <c r="K210" t="s">
         <v>773</v>
       </c>
-      <c r="L210" s="1"/>
-    </row>
-    <row r="211" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>803</v>
@@ -14055,12 +13743,11 @@
       <c r="J211" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K211" s="1" t="s">
+      <c r="K211" t="s">
         <v>773</v>
       </c>
-      <c r="L211" s="1"/>
-    </row>
-    <row r="212" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>806</v>
@@ -14081,12 +13768,11 @@
       <c r="J212" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K212" s="1" t="s">
+      <c r="K212" t="s">
         <v>773</v>
       </c>
-      <c r="L212" s="1"/>
-    </row>
-    <row r="213" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
         <v>809</v>
@@ -14105,12 +13791,11 @@
       <c r="J213" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K213" s="1" t="s">
+      <c r="K213" t="s">
         <v>773</v>
       </c>
-      <c r="L213" s="1"/>
-    </row>
-    <row r="214" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
         <v>812</v>
@@ -14131,12 +13816,11 @@
       <c r="J214" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K214" s="1" t="s">
+      <c r="K214" t="s">
         <v>773</v>
       </c>
-      <c r="L214" s="1"/>
-    </row>
-    <row r="215" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
         <v>815</v>
@@ -14157,12 +13841,11 @@
       <c r="J215" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K215" s="1" t="s">
+      <c r="K215" t="s">
         <v>773</v>
       </c>
-      <c r="L215" s="1"/>
-    </row>
-    <row r="216" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1" t="s">
         <v>818</v>
@@ -14183,12 +13866,11 @@
       <c r="J216" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K216" s="1" t="s">
+      <c r="K216" t="s">
         <v>773</v>
       </c>
-      <c r="L216" s="1"/>
-    </row>
-    <row r="217" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1" t="s">
         <v>821</v>
@@ -14209,12 +13891,11 @@
       <c r="J217" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K217" s="1" t="s">
+      <c r="K217" t="s">
         <v>773</v>
       </c>
-      <c r="L217" s="1"/>
-    </row>
-    <row r="218" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1" t="s">
         <v>824</v>
@@ -14235,12 +13916,11 @@
       <c r="J218" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="K218" t="s">
         <v>773</v>
       </c>
-      <c r="L218" s="1"/>
-    </row>
-    <row r="219" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1" t="s">
         <v>827</v>
@@ -14261,12 +13941,11 @@
       <c r="J219" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="K219" s="1" t="s">
+      <c r="K219" t="s">
         <v>773</v>
       </c>
-      <c r="L219" s="1"/>
-    </row>
-    <row r="220" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1" t="s">
         <v>830</v>
@@ -14287,10 +13966,8 @@
       <c r="J220" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-    </row>
-    <row r="221" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1" t="s">
         <v>834</v>
@@ -14309,10 +13986,8 @@
       <c r="J221" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-    </row>
-    <row r="222" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1" t="s">
         <v>838</v>
@@ -14331,12 +14006,11 @@
       <c r="J222" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K222" s="1" t="s">
+      <c r="K222" t="s">
         <v>836</v>
       </c>
-      <c r="L222" s="1"/>
-    </row>
-    <row r="223" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1" t="s">
         <v>841</v>
@@ -14355,12 +14029,11 @@
       <c r="J223" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K223" s="1" t="s">
+      <c r="K223" t="s">
         <v>836</v>
       </c>
-      <c r="L223" s="1"/>
-    </row>
-    <row r="224" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
         <v>844</v>
@@ -14379,12 +14052,11 @@
       <c r="J224" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K224" s="1" t="s">
+      <c r="K224" t="s">
         <v>836</v>
       </c>
-      <c r="L224" s="1"/>
-    </row>
-    <row r="225" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>847</v>
@@ -14403,12 +14075,11 @@
       <c r="J225" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K225" s="1" t="s">
+      <c r="K225" t="s">
         <v>836</v>
       </c>
-      <c r="L225" s="1"/>
-    </row>
-    <row r="226" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1" t="s">
         <v>850</v>
@@ -14427,12 +14098,11 @@
       <c r="J226" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="K226" s="1" t="s">
+      <c r="K226" t="s">
         <v>836</v>
       </c>
-      <c r="L226" s="1"/>
-    </row>
-    <row r="227" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1" t="s">
         <v>853</v>
@@ -14453,10 +14123,8 @@
       <c r="J227" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
-    </row>
-    <row r="228" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1" t="s">
         <v>857</v>
@@ -14477,10 +14145,8 @@
       <c r="J228" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="K228" s="1"/>
-      <c r="L228" s="1"/>
-    </row>
-    <row r="229" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1" t="s">
         <v>861</v>
@@ -14501,10 +14167,8 @@
       <c r="J229" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-    </row>
-    <row r="230" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>625</v>
@@ -14523,10 +14187,8 @@
       <c r="J230" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-    </row>
-    <row r="231" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>867</v>
@@ -14545,12 +14207,11 @@
       <c r="J231" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K231" s="1" t="s">
+      <c r="K231" t="s">
         <v>865</v>
       </c>
-      <c r="L231" s="1"/>
-    </row>
-    <row r="232" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
         <v>870</v>
@@ -14569,12 +14230,11 @@
       <c r="J232" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K232" s="1" t="s">
+      <c r="K232" t="s">
         <v>865</v>
       </c>
-      <c r="L232" s="1"/>
-    </row>
-    <row r="233" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1" t="s">
         <v>873</v>
@@ -14593,12 +14253,11 @@
       <c r="J233" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K233" s="1" t="s">
+      <c r="K233" t="s">
         <v>865</v>
       </c>
-      <c r="L233" s="1"/>
-    </row>
-    <row r="234" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
         <v>876</v>
@@ -14617,12 +14276,11 @@
       <c r="J234" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K234" s="1" t="s">
+      <c r="K234" t="s">
         <v>865</v>
       </c>
-      <c r="L234" s="1"/>
-    </row>
-    <row r="235" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
         <v>879</v>
@@ -14641,12 +14299,11 @@
       <c r="J235" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K235" s="1" t="s">
+      <c r="K235" t="s">
         <v>865</v>
       </c>
-      <c r="L235" s="1"/>
-    </row>
-    <row r="236" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1" t="s">
         <v>630</v>
@@ -14665,10 +14322,8 @@
       <c r="J236" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-    </row>
-    <row r="237" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1" t="s">
         <v>884</v>
@@ -14687,10 +14342,8 @@
       <c r="J237" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-    </row>
-    <row r="238" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1" t="s">
         <v>888</v>
@@ -14709,10 +14362,8 @@
       <c r="J238" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-    </row>
-    <row r="239" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
         <v>892</v>
@@ -14731,10 +14382,8 @@
       <c r="J239" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-    </row>
-    <row r="240" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
         <v>896</v>
@@ -14755,10 +14404,8 @@
       <c r="J240" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
-    </row>
-    <row r="241" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1" t="s">
         <v>900</v>
@@ -14777,10 +14424,8 @@
       <c r="J241" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
-    </row>
-    <row r="242" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
         <v>904</v>
@@ -14799,12 +14444,11 @@
       <c r="J242" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K242" s="1" t="s">
+      <c r="K242" t="s">
         <v>902</v>
       </c>
-      <c r="L242" s="1"/>
-    </row>
-    <row r="243" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
         <v>907</v>
@@ -14823,12 +14467,11 @@
       <c r="J243" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K243" s="1" t="s">
+      <c r="K243" t="s">
         <v>902</v>
       </c>
-      <c r="L243" s="1"/>
-    </row>
-    <row r="244" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
         <v>910</v>
@@ -14847,12 +14490,11 @@
       <c r="J244" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K244" s="1" t="s">
+      <c r="K244" t="s">
         <v>902</v>
       </c>
-      <c r="L244" s="1"/>
-    </row>
-    <row r="245" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
         <v>913</v>
@@ -14871,12 +14513,11 @@
       <c r="J245" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K245" s="1" t="s">
+      <c r="K245" t="s">
         <v>902</v>
       </c>
-      <c r="L245" s="1"/>
-    </row>
-    <row r="246" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
         <v>916</v>
@@ -14895,12 +14536,11 @@
       <c r="J246" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K246" s="1" t="s">
+      <c r="K246" t="s">
         <v>902</v>
       </c>
-      <c r="L246" s="1"/>
-    </row>
-    <row r="247" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
         <v>919</v>
@@ -14919,12 +14559,11 @@
       <c r="J247" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K247" s="1" t="s">
+      <c r="K247" t="s">
         <v>902</v>
       </c>
-      <c r="L247" s="1"/>
-    </row>
-    <row r="248" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
         <v>922</v>
@@ -14943,12 +14582,11 @@
       <c r="J248" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K248" s="1" t="s">
+      <c r="K248" t="s">
         <v>902</v>
       </c>
-      <c r="L248" s="1"/>
-    </row>
-    <row r="249" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
         <v>925</v>
@@ -14967,12 +14605,11 @@
       <c r="J249" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="K249" t="s">
         <v>902</v>
       </c>
-      <c r="L249" s="1"/>
-    </row>
-    <row r="250" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="s">
         <v>928</v>
@@ -14991,12 +14628,11 @@
       <c r="J250" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K250" s="1" t="s">
+      <c r="K250" t="s">
         <v>902</v>
       </c>
-      <c r="L250" s="1"/>
-    </row>
-    <row r="251" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
         <v>931</v>
@@ -15015,12 +14651,11 @@
       <c r="J251" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="K251" s="1" t="s">
+      <c r="K251" t="s">
         <v>902</v>
       </c>
-      <c r="L251" s="1"/>
-    </row>
-    <row r="252" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
         <v>934</v>
@@ -15039,10 +14674,8 @@
       <c r="J252" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-    </row>
-    <row r="253" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="s">
         <v>938</v>
@@ -15061,12 +14694,11 @@
       <c r="J253" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="K253" s="1" t="s">
+      <c r="K253" t="s">
         <v>936</v>
       </c>
-      <c r="L253" s="1"/>
-    </row>
-    <row r="254" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="s">
         <v>941</v>
@@ -15087,10 +14719,8 @@
       <c r="J254" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-    </row>
-    <row r="255" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="s">
         <v>945</v>
@@ -15109,10 +14739,8 @@
       <c r="J255" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-    </row>
-    <row r="256" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="s">
         <v>949</v>
@@ -15131,12 +14759,11 @@
       <c r="J256" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="K256" s="1" t="s">
+      <c r="K256" t="s">
         <v>947</v>
       </c>
-      <c r="L256" s="1"/>
-    </row>
-    <row r="257" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="s">
         <v>952</v>
@@ -15155,12 +14782,11 @@
       <c r="J257" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="K257" s="1" t="s">
+      <c r="K257" t="s">
         <v>947</v>
       </c>
-      <c r="L257" s="1"/>
-    </row>
-    <row r="258" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>955</v>
@@ -15179,12 +14805,11 @@
       <c r="J258" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="K258" s="1" t="s">
+      <c r="K258" t="s">
         <v>947</v>
       </c>
-      <c r="L258" s="1"/>
-    </row>
-    <row r="259" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
         <v>958</v>
@@ -15203,10 +14828,8 @@
       <c r="J259" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
-    </row>
-    <row r="260" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
         <v>962</v>
@@ -15225,12 +14848,11 @@
       <c r="J260" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="K260" s="1" t="s">
+      <c r="K260" t="s">
         <v>960</v>
       </c>
-      <c r="L260" s="1"/>
-    </row>
-    <row r="261" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="s">
         <v>965</v>
@@ -15249,12 +14871,11 @@
       <c r="J261" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="K261" s="1" t="s">
+      <c r="K261" t="s">
         <v>960</v>
       </c>
-      <c r="L261" s="1"/>
-    </row>
-    <row r="262" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="s">
         <v>968</v>
@@ -15273,10 +14894,8 @@
       <c r="J262" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K262" s="1"/>
-      <c r="L262" s="1"/>
-    </row>
-    <row r="263" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="s">
         <v>972</v>
@@ -15295,12 +14914,11 @@
       <c r="J263" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K263" s="1" t="s">
+      <c r="K263" t="s">
         <v>970</v>
       </c>
-      <c r="L263" s="1"/>
-    </row>
-    <row r="264" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="s">
         <v>975</v>
@@ -15319,12 +14937,11 @@
       <c r="J264" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K264" s="1" t="s">
+      <c r="K264" t="s">
         <v>970</v>
       </c>
-      <c r="L264" s="1"/>
-    </row>
-    <row r="265" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="s">
         <v>978</v>
@@ -15343,12 +14960,11 @@
       <c r="J265" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K265" s="1" t="s">
+      <c r="K265" t="s">
         <v>970</v>
       </c>
-      <c r="L265" s="1"/>
-    </row>
-    <row r="266" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1" t="s">
         <v>981</v>
@@ -15367,12 +14983,11 @@
       <c r="J266" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K266" s="1" t="s">
+      <c r="K266" t="s">
         <v>970</v>
       </c>
-      <c r="L266" s="1"/>
-    </row>
-    <row r="267" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1" t="s">
         <v>984</v>
@@ -15393,10 +15008,8 @@
       <c r="J267" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
-    </row>
-    <row r="268" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1" t="s">
         <v>645</v>
@@ -15415,10 +15028,8 @@
       <c r="J268" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
-    </row>
-    <row r="269" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1" t="s">
         <v>990</v>
@@ -15437,10 +15048,8 @@
       <c r="J269" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="K269" s="1"/>
-      <c r="L269" s="1"/>
-    </row>
-    <row r="270" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1" t="s">
         <v>994</v>
@@ -15459,12 +15068,11 @@
       <c r="J270" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="K270" s="1" t="s">
+      <c r="K270" t="s">
         <v>992</v>
       </c>
-      <c r="L270" s="1"/>
-    </row>
-    <row r="271" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1" t="s">
         <v>997</v>
@@ -15483,12 +15091,11 @@
       <c r="J271" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="K271" s="1" t="s">
+      <c r="K271" t="s">
         <v>992</v>
       </c>
-      <c r="L271" s="1"/>
-    </row>
-    <row r="272" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1" t="s">
         <v>1000</v>
@@ -15507,12 +15114,11 @@
       <c r="J272" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="K272" s="1" t="s">
+      <c r="K272" t="s">
         <v>992</v>
       </c>
-      <c r="L272" s="1"/>
-    </row>
-    <row r="273" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1" t="s">
         <v>1003</v>
@@ -15531,12 +15137,11 @@
       <c r="J273" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="K273" s="1" t="s">
+      <c r="K273" t="s">
         <v>992</v>
       </c>
-      <c r="L273" s="1"/>
-    </row>
-    <row r="274" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:11" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1" t="s">
         <v>1006</v>
@@ -15555,12 +15160,11 @@
       <c r="J274" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="K274" s="1" t="s">
+      <c r="K274" t="s">
         <v>992</v>
       </c>
-      <c r="L274" s="1"/>
-    </row>
-    <row r="275" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1" t="s">
         <v>1009</v>
@@ -15579,10 +15183,8 @@
       <c r="J275" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K275" s="1"/>
-      <c r="L275" s="1"/>
-    </row>
-    <row r="276" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1" t="s">
         <v>1013</v>
@@ -15601,12 +15203,11 @@
       <c r="J276" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K276" s="1" t="s">
+      <c r="K276" t="s">
         <v>1011</v>
       </c>
-      <c r="L276" s="1"/>
-    </row>
-    <row r="277" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>1016</v>
@@ -15625,12 +15226,11 @@
       <c r="J277" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K277" s="1" t="s">
+      <c r="K277" t="s">
         <v>1011</v>
       </c>
-      <c r="L277" s="1"/>
-    </row>
-    <row r="278" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>1019</v>
@@ -15649,12 +15249,11 @@
       <c r="J278" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K278" s="1" t="s">
+      <c r="K278" t="s">
         <v>1011</v>
       </c>
-      <c r="L278" s="1"/>
-    </row>
-    <row r="279" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1" t="s">
         <v>1022</v>
@@ -15673,12 +15272,11 @@
       <c r="J279" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K279" s="1" t="s">
+      <c r="K279" t="s">
         <v>1011</v>
       </c>
-      <c r="L279" s="1"/>
-    </row>
-    <row r="280" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1" t="s">
         <v>1025</v>
@@ -15697,12 +15295,11 @@
       <c r="J280" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="K280" s="1" t="s">
+      <c r="K280" t="s">
         <v>1011</v>
       </c>
-      <c r="L280" s="1"/>
-    </row>
-    <row r="281" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1" t="s">
         <v>1028</v>
@@ -15721,10 +15318,8 @@
       <c r="J281" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K281" s="1"/>
-      <c r="L281" s="1"/>
-    </row>
-    <row r="282" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1" t="s">
         <v>1032</v>
@@ -15743,12 +15338,11 @@
       <c r="J282" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K282" s="1" t="s">
+      <c r="K282" t="s">
         <v>1030</v>
       </c>
-      <c r="L282" s="1"/>
-    </row>
-    <row r="283" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1" t="s">
         <v>1035</v>
@@ -15767,12 +15361,11 @@
       <c r="J283" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K283" s="1" t="s">
+      <c r="K283" t="s">
         <v>1030</v>
       </c>
-      <c r="L283" s="1"/>
-    </row>
-    <row r="284" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1" t="s">
         <v>1038</v>
@@ -15791,12 +15384,11 @@
       <c r="J284" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K284" s="1" t="s">
+      <c r="K284" t="s">
         <v>1030</v>
       </c>
-      <c r="L284" s="1"/>
-    </row>
-    <row r="285" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1" t="s">
         <v>1041</v>
@@ -15815,12 +15407,11 @@
       <c r="J285" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K285" s="1" t="s">
+      <c r="K285" t="s">
         <v>1030</v>
       </c>
-      <c r="L285" s="1"/>
-    </row>
-    <row r="286" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1" t="s">
         <v>1044</v>
@@ -15839,12 +15430,11 @@
       <c r="J286" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K286" s="1" t="s">
+      <c r="K286" t="s">
         <v>1030</v>
       </c>
-      <c r="L286" s="1"/>
-    </row>
-    <row r="287" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1" t="s">
         <v>1047</v>
@@ -15863,12 +15453,11 @@
       <c r="J287" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K287" s="1" t="s">
+      <c r="K287" t="s">
         <v>1030</v>
       </c>
-      <c r="L287" s="1"/>
-    </row>
-    <row r="288" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1" t="s">
         <v>1050</v>
@@ -15887,12 +15476,11 @@
       <c r="J288" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="K288" s="1" t="s">
+      <c r="K288" t="s">
         <v>1030</v>
       </c>
-      <c r="L288" s="1"/>
-    </row>
-    <row r="289" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1" t="s">
         <v>1053</v>
@@ -15911,10 +15499,8 @@
       <c r="J289" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K289" s="1"/>
-      <c r="L289" s="1"/>
-    </row>
-    <row r="290" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1" t="s">
         <v>1057</v>
@@ -15933,12 +15519,11 @@
       <c r="J290" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K290" s="1" t="s">
+      <c r="K290" t="s">
         <v>1055</v>
       </c>
-      <c r="L290" s="1"/>
-    </row>
-    <row r="291" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1" t="s">
         <v>1060</v>
@@ -15957,12 +15542,11 @@
       <c r="J291" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K291" s="1" t="s">
+      <c r="K291" t="s">
         <v>1055</v>
       </c>
-      <c r="L291" s="1"/>
-    </row>
-    <row r="292" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1" t="s">
         <v>1063</v>
@@ -15981,12 +15565,11 @@
       <c r="J292" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K292" s="1" t="s">
+      <c r="K292" t="s">
         <v>1055</v>
       </c>
-      <c r="L292" s="1"/>
-    </row>
-    <row r="293" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1" t="s">
         <v>1066</v>
@@ -16005,12 +15588,11 @@
       <c r="J293" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K293" s="1" t="s">
+      <c r="K293" t="s">
         <v>1055</v>
       </c>
-      <c r="L293" s="1"/>
-    </row>
-    <row r="294" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1" t="s">
         <v>1069</v>
@@ -16029,12 +15611,11 @@
       <c r="J294" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K294" s="1" t="s">
+      <c r="K294" t="s">
         <v>1055</v>
       </c>
-      <c r="L294" s="1"/>
-    </row>
-    <row r="295" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1" t="s">
         <v>1072</v>
@@ -16053,12 +15634,11 @@
       <c r="J295" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K295" s="1" t="s">
+      <c r="K295" t="s">
         <v>1055</v>
       </c>
-      <c r="L295" s="1"/>
-    </row>
-    <row r="296" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1" t="s">
         <v>1075</v>
@@ -16077,12 +15657,11 @@
       <c r="J296" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K296" s="1" t="s">
+      <c r="K296" t="s">
         <v>1055</v>
       </c>
-      <c r="L296" s="1"/>
-    </row>
-    <row r="297" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1" t="s">
         <v>1078</v>
@@ -16103,12 +15682,11 @@
       <c r="J297" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K297" s="1" t="s">
+      <c r="K297" t="s">
         <v>1055</v>
       </c>
-      <c r="L297" s="1"/>
-    </row>
-    <row r="298" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1" t="s">
         <v>1082</v>
@@ -16129,12 +15707,11 @@
       <c r="J298" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K298" s="1" t="s">
+      <c r="K298" t="s">
         <v>1055</v>
       </c>
-      <c r="L298" s="1"/>
-    </row>
-    <row r="299" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1" t="s">
         <v>1085</v>
@@ -16155,12 +15732,11 @@
       <c r="J299" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K299" s="1" t="s">
+      <c r="K299" t="s">
         <v>1055</v>
       </c>
-      <c r="L299" s="1"/>
-    </row>
-    <row r="300" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1" t="s">
         <v>1088</v>
@@ -16181,12 +15757,11 @@
       <c r="J300" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K300" s="1" t="s">
+      <c r="K300" t="s">
         <v>1055</v>
       </c>
-      <c r="L300" s="1"/>
-    </row>
-    <row r="301" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1" t="s">
         <v>1091</v>
@@ -16205,12 +15780,11 @@
       <c r="J301" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K301" s="1" t="s">
+      <c r="K301" t="s">
         <v>1055</v>
       </c>
-      <c r="L301" s="1"/>
-    </row>
-    <row r="302" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1" t="s">
         <v>1094</v>
@@ -16229,12 +15803,11 @@
       <c r="J302" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K302" s="1" t="s">
+      <c r="K302" t="s">
         <v>1055</v>
       </c>
-      <c r="L302" s="1"/>
-    </row>
-    <row r="303" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1" t="s">
         <v>1097</v>
@@ -16253,10 +15826,8 @@
       <c r="J303" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K303" s="1"/>
-      <c r="L303" s="1"/>
-    </row>
-    <row r="304" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1" t="s">
         <v>1101</v>
@@ -16275,12 +15846,11 @@
       <c r="J304" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K304" s="1" t="s">
+      <c r="K304" t="s">
         <v>1099</v>
       </c>
-      <c r="L304" s="1"/>
-    </row>
-    <row r="305" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1" t="s">
         <v>1104</v>
@@ -16299,12 +15869,11 @@
       <c r="J305" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K305" s="1" t="s">
+      <c r="K305" t="s">
         <v>1099</v>
       </c>
-      <c r="L305" s="1"/>
-    </row>
-    <row r="306" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1" t="s">
         <v>1107</v>
@@ -16323,12 +15892,11 @@
       <c r="J306" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K306" s="1" t="s">
+      <c r="K306" t="s">
         <v>1099</v>
       </c>
-      <c r="L306" s="1"/>
-    </row>
-    <row r="307" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1" t="s">
         <v>1110</v>
@@ -16347,12 +15915,11 @@
       <c r="J307" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K307" s="1" t="s">
+      <c r="K307" t="s">
         <v>1099</v>
       </c>
-      <c r="L307" s="1"/>
-    </row>
-    <row r="308" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1" t="s">
         <v>1113</v>
@@ -16371,12 +15938,11 @@
       <c r="J308" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K308" s="1" t="s">
+      <c r="K308" t="s">
         <v>1099</v>
       </c>
-      <c r="L308" s="1"/>
-    </row>
-    <row r="309" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1" t="s">
         <v>1116</v>
@@ -16395,12 +15961,11 @@
       <c r="J309" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K309" s="1" t="s">
+      <c r="K309" t="s">
         <v>1099</v>
       </c>
-      <c r="L309" s="1"/>
-    </row>
-    <row r="310" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1" t="s">
         <v>1119</v>
@@ -16419,12 +15984,11 @@
       <c r="J310" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K310" s="1" t="s">
+      <c r="K310" t="s">
         <v>1099</v>
       </c>
-      <c r="L310" s="1"/>
-    </row>
-    <row r="311" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1" t="s">
         <v>1122</v>
@@ -16443,12 +16007,11 @@
       <c r="J311" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="K311" s="1" t="s">
+      <c r="K311" t="s">
         <v>1099</v>
       </c>
-      <c r="L311" s="1"/>
-    </row>
-    <row r="312" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1" t="s">
         <v>1125</v>
@@ -16469,10 +16032,8 @@
       <c r="J312" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="K312" s="1"/>
-      <c r="L312" s="1"/>
-    </row>
-    <row r="313" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="s">
         <v>1129</v>
@@ -16493,10 +16054,8 @@
       <c r="J313" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="K313" s="1"/>
-      <c r="L313" s="1"/>
-    </row>
-    <row r="314" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="s">
         <v>1133</v>
@@ -16517,10 +16076,8 @@
       <c r="J314" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="K314" s="1"/>
-      <c r="L314" s="1"/>
-    </row>
-    <row r="315" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="s">
         <v>1137</v>
@@ -16539,10 +16096,8 @@
       <c r="J315" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="K315" s="1"/>
-      <c r="L315" s="1"/>
-    </row>
-    <row r="316" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="s">
         <v>1141</v>
@@ -16561,12 +16116,11 @@
       <c r="J316" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="K316" s="1" t="s">
+      <c r="K316" t="s">
         <v>1139</v>
       </c>
-      <c r="L316" s="1"/>
-    </row>
-    <row r="317" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="s">
         <v>1144</v>
@@ -16585,12 +16139,11 @@
       <c r="J317" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="K317" s="1" t="s">
+      <c r="K317" t="s">
         <v>1139</v>
       </c>
-      <c r="L317" s="1"/>
-    </row>
-    <row r="318" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="s">
         <v>1147</v>
@@ -16609,12 +16162,11 @@
       <c r="J318" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="K318" s="1" t="s">
+      <c r="K318" t="s">
         <v>1139</v>
       </c>
-      <c r="L318" s="1"/>
-    </row>
-    <row r="319" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="s">
         <v>1150</v>
@@ -16633,12 +16185,11 @@
       <c r="J319" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="K319" s="1" t="s">
+      <c r="K319" t="s">
         <v>1139</v>
       </c>
-      <c r="L319" s="1"/>
-    </row>
-    <row r="320" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="s">
         <v>1153</v>
@@ -16657,12 +16208,11 @@
       <c r="J320" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="K320" s="1" t="s">
+      <c r="K320" t="s">
         <v>1139</v>
       </c>
-      <c r="L320" s="1"/>
-    </row>
-    <row r="321" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="s">
         <v>1156</v>
@@ -16681,10 +16231,8 @@
       <c r="J321" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="K321" s="1"/>
-      <c r="L321" s="1"/>
-    </row>
-    <row r="322" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1" t="s">
         <v>1160</v>
@@ -16705,12 +16253,11 @@
       <c r="J322" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="K322" s="1" t="s">
+      <c r="K322" t="s">
         <v>1158</v>
       </c>
-      <c r="L322" s="1"/>
-    </row>
-    <row r="323" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="s">
         <v>1163</v>
@@ -16731,12 +16278,11 @@
       <c r="J323" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="K323" s="1" t="s">
+      <c r="K323" t="s">
         <v>1158</v>
       </c>
-      <c r="L323" s="1"/>
-    </row>
-    <row r="324" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="s">
         <v>1166</v>
@@ -16757,10 +16303,8 @@
       <c r="J324" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="K324" s="1"/>
-      <c r="L324" s="1"/>
-    </row>
-    <row r="325" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="s">
         <v>1170</v>
@@ -16781,12 +16325,11 @@
       <c r="J325" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="K325" s="1" t="s">
+      <c r="K325" t="s">
         <v>1168</v>
       </c>
-      <c r="L325" s="1"/>
-    </row>
-    <row r="326" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="1:11" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
         <v>1173</v>
@@ -16807,12 +16350,11 @@
       <c r="J326" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="K326" s="1" t="s">
+      <c r="K326" t="s">
         <v>1168</v>
       </c>
-      <c r="L326" s="1"/>
-    </row>
-    <row r="327" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="s">
         <v>1176</v>
@@ -16831,10 +16373,8 @@
       <c r="J327" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
-    </row>
-    <row r="328" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="s">
         <v>1180</v>
@@ -16853,12 +16393,11 @@
       <c r="J328" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K328" s="1" t="s">
+      <c r="K328" t="s">
         <v>1178</v>
       </c>
-      <c r="L328" s="1"/>
-    </row>
-    <row r="329" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="s">
         <v>1183</v>
@@ -16877,12 +16416,11 @@
       <c r="J329" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K329" s="1" t="s">
+      <c r="K329" t="s">
         <v>1178</v>
       </c>
-      <c r="L329" s="1"/>
-    </row>
-    <row r="330" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1" t="s">
         <v>1186</v>
@@ -16901,12 +16439,11 @@
       <c r="J330" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K330" s="1" t="s">
+      <c r="K330" t="s">
         <v>1178</v>
       </c>
-      <c r="L330" s="1"/>
-    </row>
-    <row r="331" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1" t="s">
         <v>1189</v>
@@ -16925,12 +16462,11 @@
       <c r="J331" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K331" s="1" t="s">
+      <c r="K331" t="s">
         <v>1178</v>
       </c>
-      <c r="L331" s="1"/>
-    </row>
-    <row r="332" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
         <v>1192</v>
@@ -16949,12 +16485,11 @@
       <c r="J332" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K332" s="1" t="s">
+      <c r="K332" t="s">
         <v>1178</v>
       </c>
-      <c r="L332" s="1"/>
-    </row>
-    <row r="333" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1" t="s">
         <v>1195</v>
@@ -16973,12 +16508,11 @@
       <c r="J333" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K333" s="1" t="s">
+      <c r="K333" t="s">
         <v>1178</v>
       </c>
-      <c r="L333" s="1"/>
-    </row>
-    <row r="334" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1" t="s">
         <v>1198</v>
@@ -16997,12 +16531,11 @@
       <c r="J334" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K334" s="1" t="s">
+      <c r="K334" t="s">
         <v>1178</v>
       </c>
-      <c r="L334" s="1"/>
-    </row>
-    <row r="335" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1" t="s">
         <v>1201</v>
@@ -17021,12 +16554,11 @@
       <c r="J335" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K335" s="1" t="s">
+      <c r="K335" t="s">
         <v>1178</v>
       </c>
-      <c r="L335" s="1"/>
-    </row>
-    <row r="336" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="1:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1" t="s">
         <v>1204</v>
@@ -17045,12 +16577,11 @@
       <c r="J336" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K336" s="1" t="s">
+      <c r="K336" t="s">
         <v>1178</v>
       </c>
-      <c r="L336" s="1"/>
-    </row>
-    <row r="337" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1" t="s">
         <v>1207</v>
@@ -17071,10 +16602,8 @@
       <c r="J337" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
-    </row>
-    <row r="338" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:10" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -17085,10 +16614,8 @@
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
-    </row>
-    <row r="339" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>1211</v>
       </c>
@@ -17109,10 +16636,8 @@
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
-    </row>
-    <row r="340" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1" t="s">
         <v>1215</v>
@@ -17135,10 +16660,8 @@
       <c r="J340" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
-    </row>
-    <row r="341" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1" t="s">
         <v>609</v>
@@ -17161,10 +16684,8 @@
       <c r="J341" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
-    </row>
-    <row r="342" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1" t="s">
         <v>1222</v>
@@ -17187,10 +16708,8 @@
       <c r="J342" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K342" s="1"/>
-      <c r="L342" s="1"/>
-    </row>
-    <row r="343" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1" t="s">
         <v>1226</v>
@@ -17213,10 +16732,8 @@
       <c r="J343" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K343" s="1"/>
-      <c r="L343" s="1"/>
-    </row>
-    <row r="344" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1" t="s">
         <v>1230</v>
@@ -17239,10 +16756,8 @@
       <c r="J344" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K344" s="1"/>
-      <c r="L344" s="1"/>
-    </row>
-    <row r="345" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1" t="s">
         <v>620</v>
@@ -17265,10 +16780,8 @@
       <c r="J345" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K345" s="1"/>
-      <c r="L345" s="1"/>
-    </row>
-    <row r="346" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1" t="s">
         <v>1236</v>
@@ -17291,10 +16804,8 @@
       <c r="J346" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K346" s="1"/>
-      <c r="L346" s="1"/>
-    </row>
-    <row r="347" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1" t="s">
         <v>625</v>
@@ -17317,10 +16828,8 @@
       <c r="J347" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K347" s="1"/>
-      <c r="L347" s="1"/>
-    </row>
-    <row r="348" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1" t="s">
         <v>630</v>
@@ -17343,10 +16852,8 @@
       <c r="J348" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K348" s="1"/>
-      <c r="L348" s="1"/>
-    </row>
-    <row r="349" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1" t="s">
         <v>968</v>
@@ -17369,10 +16876,8 @@
       <c r="J349" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
-    </row>
-    <row r="350" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1" t="s">
         <v>1246</v>
@@ -17395,10 +16900,8 @@
       <c r="J350" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K350" s="1"/>
-      <c r="L350" s="1"/>
-    </row>
-    <row r="351" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1" t="s">
         <v>1250</v>
@@ -17421,10 +16924,8 @@
       <c r="J351" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K351" s="1"/>
-      <c r="L351" s="1"/>
-    </row>
-    <row r="352" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="1:10" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1" t="s">
         <v>1254</v>
@@ -17447,8 +16948,6 @@
       <c r="J352" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K352" s="1"/>
-      <c r="L352" s="1"/>
     </row>
     <row r="353" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
@@ -17473,8 +16972,6 @@
       <c r="J353" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K353" s="1"/>
-      <c r="L353" s="1"/>
     </row>
     <row r="354" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
@@ -17499,8 +16996,6 @@
       <c r="J354" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
     </row>
     <row r="355" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
@@ -17525,8 +17020,6 @@
       <c r="J355" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
     </row>
     <row r="356" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
@@ -17551,8 +17044,6 @@
       <c r="J356" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
     </row>
     <row r="357" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
@@ -17577,8 +17068,6 @@
       <c r="J357" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
     </row>
     <row r="358" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
@@ -17591,8 +17080,6 @@
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
     </row>
     <row r="359" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
@@ -17615,10 +17102,8 @@
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
-    </row>
-    <row r="360" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
         <v>1278</v>
@@ -17641,12 +17126,11 @@
       <c r="J360" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1" t="s">
+      <c r="L360" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
         <v>1284</v>
@@ -17669,12 +17153,11 @@
       <c r="J361" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1" t="s">
+      <c r="L361" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
         <v>1289</v>
@@ -17695,8 +17178,7 @@
       <c r="J362" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K362" s="1"/>
-      <c r="L362" s="1" t="s">
+      <c r="L362" t="s">
         <v>1293</v>
       </c>
     </row>
@@ -17723,12 +17205,11 @@
       <c r="J363" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K363" s="1"/>
-      <c r="L363" s="1" t="s">
+      <c r="L363" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1" t="s">
         <v>1296</v>
@@ -17751,12 +17232,11 @@
       <c r="J364" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K364" s="1"/>
-      <c r="L364" s="1" t="s">
+      <c r="L364" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1" t="s">
         <v>1301</v>
@@ -17779,12 +17259,11 @@
       <c r="J365" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1" t="s">
+      <c r="L365" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1" t="s">
         <v>1306</v>
@@ -17807,8 +17286,7 @@
       <c r="J366" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1" t="s">
+      <c r="L366" t="s">
         <v>1310</v>
       </c>
     </row>
@@ -17823,8 +17301,6 @@
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
-      <c r="L367" s="1"/>
     </row>
     <row r="368" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
@@ -17847,8 +17323,6 @@
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="1"/>
     </row>
     <row r="369" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
@@ -17873,8 +17347,7 @@
       <c r="J369" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K369" s="1"/>
-      <c r="L369" s="1" t="s">
+      <c r="L369" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -17901,8 +17374,7 @@
       <c r="J370" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K370" s="1"/>
-      <c r="L370" s="1" t="s">
+      <c r="L370" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -17931,8 +17403,7 @@
       <c r="J371" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K371" s="1"/>
-      <c r="L371" s="1" t="s">
+      <c r="L371" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -17957,8 +17428,7 @@
       <c r="J372" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K372" s="1"/>
-      <c r="L372" s="1" t="s">
+      <c r="L372" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -17985,8 +17455,7 @@
       <c r="J373" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K373" s="1"/>
-      <c r="L373" s="1" t="s">
+      <c r="L373" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -18013,12 +17482,11 @@
       <c r="J374" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K374" s="1"/>
-      <c r="L374" s="1" t="s">
+      <c r="L374" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
         <v>1344</v>
@@ -18039,8 +17507,7 @@
       <c r="J375" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K375" s="1"/>
-      <c r="L375" s="1" t="s">
+      <c r="L375" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -18055,8 +17522,6 @@
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
-      <c r="K376" s="1"/>
-      <c r="L376" s="1"/>
     </row>
     <row r="377" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
@@ -18079,8 +17544,6 @@
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
-      <c r="K377" s="1"/>
-      <c r="L377" s="1"/>
     </row>
     <row r="378" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
@@ -18105,8 +17568,7 @@
       <c r="J378" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="K378" s="1"/>
-      <c r="L378" s="1" t="s">
+      <c r="L378" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -18133,8 +17595,7 @@
       <c r="J379" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="K379" s="1"/>
-      <c r="L379" s="1" t="s">
+      <c r="L379" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -18161,8 +17622,7 @@
       <c r="J380" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="K380" s="1"/>
-      <c r="L380" s="1" t="s">
+      <c r="L380" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -18189,8 +17649,7 @@
       <c r="J381" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="K381" s="1"/>
-      <c r="L381" s="1" t="s">
+      <c r="L381" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -18205,8 +17664,6 @@
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
-      <c r="K382" s="1"/>
-      <c r="L382" s="1"/>
     </row>
     <row r="383" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
@@ -18229,8 +17686,6 @@
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
-      <c r="K383" s="1"/>
-      <c r="L383" s="1"/>
     </row>
     <row r="384" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
@@ -18255,12 +17710,11 @@
       <c r="J384" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K384" s="1"/>
-      <c r="L384" s="1" t="s">
+      <c r="L384" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
         <v>1381</v>
@@ -18283,8 +17737,7 @@
       <c r="J385" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K385" s="1"/>
-      <c r="L385" s="1" t="s">
+      <c r="L385" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -18309,12 +17762,11 @@
       <c r="J386" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K386" s="1"/>
-      <c r="L386" s="1" t="s">
+      <c r="L386" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="s">
         <v>1390</v>
@@ -18335,12 +17787,11 @@
       <c r="J387" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K387" s="1"/>
-      <c r="L387" s="1" t="s">
+      <c r="L387" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="s">
         <v>1394</v>
@@ -18361,12 +17812,11 @@
       <c r="J388" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K388" s="1"/>
-      <c r="L388" s="1" t="s">
+      <c r="L388" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="s">
         <v>1398</v>
@@ -18387,8 +17837,7 @@
       <c r="J389" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K389" s="1"/>
-      <c r="L389" s="1" t="s">
+      <c r="L389" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -18413,8 +17862,7 @@
       <c r="J390" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="K390" s="1"/>
-      <c r="L390" s="1" t="s">
+      <c r="L390" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -18429,8 +17877,6 @@
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
-      <c r="K391" s="1"/>
-      <c r="L391" s="1"/>
     </row>
     <row r="392" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
@@ -18453,8 +17899,6 @@
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
-      <c r="K392" s="1"/>
-      <c r="L392" s="1"/>
     </row>
     <row r="393" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
@@ -18479,8 +17923,7 @@
       <c r="J393" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1" t="s">
+      <c r="L393" t="s">
         <v>1418</v>
       </c>
     </row>
@@ -18509,8 +17952,7 @@
       <c r="J394" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K394" s="1"/>
-      <c r="L394" s="1" t="s">
+      <c r="L394" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -18537,8 +17979,7 @@
       <c r="J395" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K395" s="1"/>
-      <c r="L395" s="1" t="s">
+      <c r="L395" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -18565,8 +18006,7 @@
       <c r="J396" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K396" s="1"/>
-      <c r="L396" s="1" t="s">
+      <c r="L396" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -18595,8 +18035,7 @@
       <c r="J397" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K397" s="1"/>
-      <c r="L397" s="1" t="s">
+      <c r="L397" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -18623,8 +18062,7 @@
       <c r="J398" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K398" s="1"/>
-      <c r="L398" s="1" t="s">
+      <c r="L398" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -18651,8 +18089,7 @@
       <c r="J399" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K399" s="1"/>
-      <c r="L399" s="1" t="s">
+      <c r="L399" t="s">
         <v>110</v>
       </c>
     </row>
@@ -18679,8 +18116,7 @@
       <c r="J400" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1" t="s">
+      <c r="L400" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -18709,8 +18145,7 @@
       <c r="J401" s="1" t="s">
         <v>1417</v>
       </c>
-      <c r="K401" s="1"/>
-      <c r="L401" s="1" t="s">
+      <c r="L401" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -18725,8 +18160,6 @@
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
     </row>
     <row r="403" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
@@ -18749,8 +18182,6 @@
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
     </row>
     <row r="404" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
@@ -18775,8 +18206,7 @@
       <c r="J404" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="K404" s="1"/>
-      <c r="L404" s="1" t="s">
+      <c r="L404" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -18803,8 +18233,7 @@
       <c r="J405" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1" t="s">
+      <c r="L405" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -18831,8 +18260,7 @@
       <c r="J406" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1" t="s">
+      <c r="L406" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -18859,8 +18287,7 @@
       <c r="J407" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1" t="s">
+      <c r="L407" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -18887,8 +18314,7 @@
       <c r="J408" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="K408" s="1"/>
-      <c r="L408" s="1" t="s">
+      <c r="L408" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -18915,8 +18341,7 @@
       <c r="J409" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1" t="s">
+      <c r="L409" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -18931,8 +18356,6 @@
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
-      <c r="K410" s="1"/>
-      <c r="L410" s="1"/>
     </row>
     <row r="411" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
@@ -18955,8 +18378,6 @@
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
-      <c r="K411" s="1"/>
-      <c r="L411" s="1"/>
     </row>
     <row r="412" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
@@ -18981,8 +18402,7 @@
       <c r="J412" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K412" s="1"/>
-      <c r="L412" s="1" t="s">
+      <c r="L412" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -19011,8 +18431,7 @@
       <c r="J413" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1" t="s">
+      <c r="L413" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -19039,8 +18458,7 @@
       <c r="J414" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1" t="s">
+      <c r="L414" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -19069,8 +18487,7 @@
       <c r="J415" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K415" s="1"/>
-      <c r="L415" s="1" t="s">
+      <c r="L415" t="s">
         <v>722</v>
       </c>
     </row>
@@ -19095,12 +18512,11 @@
       <c r="J416" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1" t="s">
+      <c r="L416" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="B417" s="1" t="s">
         <v>1523</v>
@@ -19121,8 +18537,7 @@
       <c r="J417" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1" t="s">
+      <c r="L417" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -19149,12 +18564,11 @@
       <c r="J418" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1" t="s">
+      <c r="L418" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="419" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="B419" s="1" t="s">
         <v>1531</v>
@@ -19175,8 +18589,7 @@
       <c r="J419" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K419" s="1"/>
-      <c r="L419" s="1" t="s">
+      <c r="L419" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -19203,8 +18616,7 @@
       <c r="J420" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K420" s="1"/>
-      <c r="L420" s="1" t="s">
+      <c r="L420" t="s">
         <v>1540</v>
       </c>
     </row>
@@ -19231,12 +18643,11 @@
       <c r="J421" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K421" s="1"/>
-      <c r="L421" s="1" t="s">
+      <c r="L421" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="B422" s="1" t="s">
         <v>1546</v>
@@ -19257,12 +18668,11 @@
       <c r="J422" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K422" s="1"/>
-      <c r="L422" s="1" t="s">
+      <c r="L422" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="423" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="B423" s="1" t="s">
         <v>1550</v>
@@ -19283,8 +18693,7 @@
       <c r="J423" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K423" s="1"/>
-      <c r="L423" s="1" t="s">
+      <c r="L423" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -19311,8 +18720,7 @@
       <c r="J424" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K424" s="1"/>
-      <c r="L424" s="1" t="s">
+      <c r="L424" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -19339,12 +18747,11 @@
       <c r="J425" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K425" s="1"/>
-      <c r="L425" s="1" t="s">
+      <c r="L425" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="426" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="B426" s="1" t="s">
         <v>1562</v>
@@ -19365,8 +18772,7 @@
       <c r="J426" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K426" s="1"/>
-      <c r="L426" s="1" t="s">
+      <c r="L426" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -19393,12 +18799,11 @@
       <c r="J427" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K427" s="1"/>
-      <c r="L427" s="1" t="s">
+      <c r="L427" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="428" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="B428" s="1" t="s">
         <v>1568</v>
@@ -19419,8 +18824,7 @@
       <c r="J428" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K428" s="1"/>
-      <c r="L428" s="1" t="s">
+      <c r="L428" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -19447,12 +18851,11 @@
       <c r="J429" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K429" s="1"/>
-      <c r="L429" s="1" t="s">
+      <c r="L429" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="430" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="1" t="s">
         <v>1320</v>
@@ -19473,12 +18876,11 @@
       <c r="J430" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K430" s="1"/>
-      <c r="L430" s="1" t="s">
+      <c r="L430" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="431" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="B431" s="1" t="s">
         <v>1374</v>
@@ -19499,8 +18901,7 @@
       <c r="J431" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K431" s="1"/>
-      <c r="L431" s="1" t="s">
+      <c r="L431" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -19525,12 +18926,11 @@
       <c r="J432" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K432" s="1"/>
-      <c r="L432" s="1" t="s">
+      <c r="L432" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="B433" s="1" t="s">
         <v>1580</v>
@@ -19551,8 +18951,7 @@
       <c r="J433" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K433" s="1"/>
-      <c r="L433" s="1" t="s">
+      <c r="L433" t="s">
         <v>1584</v>
       </c>
     </row>
@@ -19579,8 +18978,7 @@
       <c r="J434" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K434" s="1"/>
-      <c r="L434" s="1" t="s">
+      <c r="L434" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -19605,8 +19003,7 @@
       <c r="J435" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K435" s="1"/>
-      <c r="L435" s="1" t="s">
+      <c r="L435" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -19631,12 +19028,11 @@
       <c r="J436" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K436" s="1"/>
-      <c r="L436" s="1" t="s">
+      <c r="L436" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="B437" s="1" t="s">
         <v>1449</v>
@@ -19657,8 +19053,7 @@
       <c r="J437" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K437" s="1"/>
-      <c r="L437" s="1" t="s">
+      <c r="L437" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -19683,12 +19078,11 @@
       <c r="J438" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K438" s="1"/>
-      <c r="L438" s="1" t="s">
+      <c r="L438" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="439" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="B439" s="1" t="s">
         <v>1603</v>
@@ -19709,12 +19103,11 @@
       <c r="J439" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K439" s="1"/>
-      <c r="L439" s="1" t="s">
+      <c r="L439" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="B440" s="1" t="s">
         <v>1607</v>
@@ -19735,12 +19128,11 @@
       <c r="J440" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K440" s="1"/>
-      <c r="L440" s="1" t="s">
+      <c r="L440" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="s">
         <v>1612</v>
@@ -19761,8 +19153,7 @@
       <c r="J441" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K441" s="1"/>
-      <c r="L441" s="1" t="s">
+      <c r="L441" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -19787,8 +19178,7 @@
       <c r="J442" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K442" s="1"/>
-      <c r="L442" s="1" t="s">
+      <c r="L442" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -19813,8 +19203,7 @@
       <c r="J443" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K443" s="1"/>
-      <c r="L443" s="1" t="s">
+      <c r="L443" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -19841,8 +19230,7 @@
       <c r="J444" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K444" s="1"/>
-      <c r="L444" s="1" t="s">
+      <c r="L444" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -19867,8 +19255,7 @@
       <c r="J445" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K445" s="1"/>
-      <c r="L445" s="1" t="s">
+      <c r="L445" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -19893,8 +19280,7 @@
       <c r="J446" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K446" s="1"/>
-      <c r="L446" s="1" t="s">
+      <c r="L446" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -19919,12 +19305,11 @@
       <c r="J447" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K447" s="1"/>
-      <c r="L447" s="1" t="s">
+      <c r="L447" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="B448" s="1" t="s">
         <v>635</v>
@@ -19945,8 +19330,7 @@
       <c r="J448" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K448" s="1"/>
-      <c r="L448" s="1" t="s">
+      <c r="L448" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -19971,8 +19355,7 @@
       <c r="J449" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K449" s="1"/>
-      <c r="L449" s="1" t="s">
+      <c r="L449" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -19997,8 +19380,7 @@
       <c r="J450" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K450" s="1"/>
-      <c r="L450" s="1" t="s">
+      <c r="L450" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -20023,8 +19405,7 @@
       <c r="J451" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K451" s="1"/>
-      <c r="L451" s="1" t="s">
+      <c r="L451" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -20049,12 +19430,11 @@
       <c r="J452" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K452" s="1"/>
-      <c r="L452" s="1" t="s">
+      <c r="L452" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="B453" s="1" t="s">
         <v>1651</v>
@@ -20075,8 +19455,7 @@
       <c r="J453" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K453" s="1"/>
-      <c r="L453" s="1" t="s">
+      <c r="L453" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -20101,12 +19480,11 @@
       <c r="J454" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K454" s="1"/>
-      <c r="L454" s="1" t="s">
+      <c r="L454" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="B455" s="1" t="s">
         <v>1659</v>
@@ -20127,8 +19505,7 @@
       <c r="J455" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K455" s="1"/>
-      <c r="L455" s="1" t="s">
+      <c r="L455" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -20153,8 +19530,7 @@
       <c r="J456" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K456" s="1"/>
-      <c r="L456" s="1" t="s">
+      <c r="L456" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -20179,12 +19555,11 @@
       <c r="J457" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K457" s="1"/>
-      <c r="L457" s="1" t="s">
+      <c r="L457" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="B458" s="1" t="s">
         <v>1670</v>
@@ -20205,8 +19580,7 @@
       <c r="J458" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K458" s="1"/>
-      <c r="L458" s="1" t="s">
+      <c r="L458" t="s">
         <v>1488</v>
       </c>
     </row>
@@ -20231,12 +19605,11 @@
       <c r="J459" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K459" s="1"/>
-      <c r="L459" s="1" t="s">
+      <c r="L459" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="B460" s="1" t="s">
         <v>945</v>
@@ -20257,12 +19630,11 @@
       <c r="J460" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K460" s="1"/>
-      <c r="L460" s="1" t="s">
+      <c r="L460" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="1" t="s">
         <v>1680</v>
@@ -20283,12 +19655,11 @@
       <c r="J461" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K461" s="1"/>
-      <c r="L461" s="1" t="s">
+      <c r="L461" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="B462" s="1" t="s">
         <v>1284</v>
@@ -20309,12 +19680,11 @@
       <c r="J462" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K462" s="1"/>
-      <c r="L462" s="1" t="s">
+      <c r="L462" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="B463" s="1" t="s">
         <v>1686</v>
@@ -20335,8 +19705,7 @@
       <c r="J463" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K463" s="1"/>
-      <c r="L463" s="1" t="s">
+      <c r="L463" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -20361,8 +19730,7 @@
       <c r="J464" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K464" s="1"/>
-      <c r="L464" s="1" t="s">
+      <c r="L464" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -20387,8 +19755,7 @@
       <c r="J465" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K465" s="1"/>
-      <c r="L465" s="1" t="s">
+      <c r="L465" t="s">
         <v>1698</v>
       </c>
     </row>
@@ -20415,8 +19782,7 @@
       <c r="J466" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K466" s="1"/>
-      <c r="L466" s="1" t="s">
+      <c r="L466" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -20443,8 +19809,7 @@
       <c r="J467" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K467" s="1"/>
-      <c r="L467" s="1" t="s">
+      <c r="L467" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -20471,12 +19836,11 @@
       <c r="J468" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K468" s="1"/>
-      <c r="L468" s="1" t="s">
+      <c r="L468" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="B469" s="1" t="s">
         <v>1289</v>
@@ -20497,8 +19861,7 @@
       <c r="J469" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K469" s="1"/>
-      <c r="L469" s="1" t="s">
+      <c r="L469" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -20523,8 +19886,7 @@
       <c r="J470" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K470" s="1"/>
-      <c r="L470" s="1" t="s">
+      <c r="L470" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -20549,8 +19911,7 @@
       <c r="J471" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K471" s="1"/>
-      <c r="L471" s="1" t="s">
+      <c r="L471" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -20575,12 +19936,11 @@
       <c r="J472" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K472" s="1"/>
-      <c r="L472" s="1" t="s">
+      <c r="L472" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="B473" s="1" t="s">
         <v>1719</v>
@@ -20601,12 +19961,11 @@
       <c r="J473" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K473" s="1"/>
-      <c r="L473" s="1" t="s">
+      <c r="L473" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="1" t="s">
         <v>1723</v>
@@ -20627,8 +19986,7 @@
       <c r="J474" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K474" s="1"/>
-      <c r="L474" s="1" t="s">
+      <c r="L474" t="s">
         <v>1727</v>
       </c>
     </row>
@@ -20653,8 +20011,7 @@
       <c r="J475" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K475" s="1"/>
-      <c r="L475" s="1" t="s">
+      <c r="L475" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -20679,8 +20036,7 @@
       <c r="J476" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K476" s="1"/>
-      <c r="L476" s="1" t="s">
+      <c r="L476" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -20705,8 +20061,7 @@
       <c r="J477" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K477" s="1"/>
-      <c r="L477" s="1" t="s">
+      <c r="L477" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -20731,8 +20086,7 @@
       <c r="J478" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K478" s="1"/>
-      <c r="L478" s="1" t="s">
+      <c r="L478" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -20759,12 +20113,11 @@
       <c r="J479" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K479" s="1"/>
-      <c r="L479" s="1" t="s">
+      <c r="L479" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="B480" s="1" t="s">
         <v>1260</v>
@@ -20785,8 +20138,7 @@
       <c r="J480" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K480" s="1"/>
-      <c r="L480" s="1" t="s">
+      <c r="L480" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -20813,8 +20165,7 @@
       <c r="J481" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K481" s="1"/>
-      <c r="L481" s="1" t="s">
+      <c r="L481" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -20843,8 +20194,7 @@
       <c r="J482" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K482" s="1"/>
-      <c r="L482" s="1" t="s">
+      <c r="L482" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -20871,8 +20221,7 @@
       <c r="J483" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K483" s="1"/>
-      <c r="L483" s="1" t="s">
+      <c r="L483" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -20897,8 +20246,7 @@
       <c r="J484" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K484" s="1"/>
-      <c r="L484" s="1" t="s">
+      <c r="L484" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -20923,12 +20271,11 @@
       <c r="J485" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K485" s="1"/>
-      <c r="L485" s="1" t="s">
+      <c r="L485" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="1" t="s">
         <v>1767</v>
@@ -20949,12 +20296,11 @@
       <c r="J486" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K486" s="1"/>
-      <c r="L486" s="1" t="s">
+      <c r="L486" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="B487" s="1" t="s">
         <v>1771</v>
@@ -20975,8 +20321,7 @@
       <c r="J487" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K487" s="1"/>
-      <c r="L487" s="1" t="s">
+      <c r="L487" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -21001,12 +20346,11 @@
       <c r="J488" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K488" s="1"/>
-      <c r="L488" s="1" t="s">
+      <c r="L488" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="B489" s="1" t="s">
         <v>1779</v>
@@ -21027,8 +20371,7 @@
       <c r="J489" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K489" s="1"/>
-      <c r="L489" s="1" t="s">
+      <c r="L489" t="s">
         <v>1584</v>
       </c>
     </row>
@@ -21053,8 +20396,7 @@
       <c r="J490" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K490" s="1"/>
-      <c r="L490" s="1" t="s">
+      <c r="L490" t="s">
         <v>1584</v>
       </c>
     </row>
@@ -21079,8 +20421,7 @@
       <c r="J491" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K491" s="1"/>
-      <c r="L491" s="1" t="s">
+      <c r="L491" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -21105,8 +20446,7 @@
       <c r="J492" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K492" s="1"/>
-      <c r="L492" s="1" t="s">
+      <c r="L492" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -21133,8 +20473,7 @@
       <c r="J493" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K493" s="1"/>
-      <c r="L493" s="1" t="s">
+      <c r="L493" t="s">
         <v>1530</v>
       </c>
     </row>
@@ -21161,8 +20500,7 @@
       <c r="J494" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K494" s="1"/>
-      <c r="L494" s="1" t="s">
+      <c r="L494" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -21187,12 +20525,11 @@
       <c r="J495" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K495" s="1"/>
-      <c r="L495" s="1" t="s">
+      <c r="L495" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="1" t="s">
         <v>1808</v>
@@ -21213,8 +20550,7 @@
       <c r="J496" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K496" s="1"/>
-      <c r="L496" s="1" t="s">
+      <c r="L496" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -21239,8 +20575,7 @@
       <c r="J497" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K497" s="1"/>
-      <c r="L497" s="1" t="s">
+      <c r="L497" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -21265,8 +20600,7 @@
       <c r="J498" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K498" s="1"/>
-      <c r="L498" s="1" t="s">
+      <c r="L498" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -21291,8 +20625,7 @@
       <c r="J499" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K499" s="1"/>
-      <c r="L499" s="1" t="s">
+      <c r="L499" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -21319,8 +20652,7 @@
       <c r="J500" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K500" s="1"/>
-      <c r="L500" s="1" t="s">
+      <c r="L500" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -21349,8 +20681,7 @@
       <c r="J501" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K501" s="1"/>
-      <c r="L501" s="1" t="s">
+      <c r="L501" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -21375,12 +20706,11 @@
       <c r="J502" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K502" s="1"/>
-      <c r="L502" s="1" t="s">
+      <c r="L502" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="B503" s="1" t="s">
         <v>686</v>
@@ -21403,8 +20733,7 @@
       <c r="J503" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K503" s="1"/>
-      <c r="L503" s="1" t="s">
+      <c r="L503" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -21429,8 +20758,7 @@
       <c r="J504" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K504" s="1"/>
-      <c r="L504" s="1" t="s">
+      <c r="L504" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -21455,8 +20783,7 @@
       <c r="J505" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K505" s="1"/>
-      <c r="L505" s="1" t="s">
+      <c r="L505" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -21481,8 +20808,7 @@
       <c r="J506" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K506" s="1"/>
-      <c r="L506" s="1" t="s">
+      <c r="L506" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -21507,8 +20833,7 @@
       <c r="J507" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K507" s="1"/>
-      <c r="L507" s="1" t="s">
+      <c r="L507" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -21535,12 +20860,11 @@
       <c r="J508" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K508" s="1"/>
-      <c r="L508" s="1" t="s">
+      <c r="L508" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="509" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="B509" s="1" t="s">
         <v>1851</v>
@@ -21563,12 +20887,11 @@
       <c r="J509" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K509" s="1"/>
-      <c r="L509" s="1" t="s">
+      <c r="L509" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="510" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="s">
         <v>1856</v>
@@ -21589,8 +20912,7 @@
       <c r="J510" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K510" s="1"/>
-      <c r="L510" s="1" t="s">
+      <c r="L510" t="s">
         <v>1860</v>
       </c>
     </row>
@@ -21615,8 +20937,7 @@
       <c r="J511" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K511" s="1"/>
-      <c r="L511" s="1" t="s">
+      <c r="L511" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -21641,8 +20962,7 @@
       <c r="J512" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K512" s="1"/>
-      <c r="L512" s="1" t="s">
+      <c r="L512" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -21667,8 +20987,7 @@
       <c r="J513" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K513" s="1"/>
-      <c r="L513" s="1" t="s">
+      <c r="L513" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -21693,8 +21012,7 @@
       <c r="J514" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K514" s="1"/>
-      <c r="L514" s="1" t="s">
+      <c r="L514" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -21719,8 +21037,7 @@
       <c r="J515" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="K515" s="1"/>
-      <c r="L515" s="1" t="s">
+      <c r="L515" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -21735,8 +21052,6 @@
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
-      <c r="K516" s="1"/>
-      <c r="L516" s="1"/>
     </row>
     <row r="517" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
@@ -21759,8 +21074,6 @@
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
-      <c r="K517" s="1"/>
-      <c r="L517" s="1"/>
     </row>
     <row r="518" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
@@ -21785,8 +21098,7 @@
       <c r="J518" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K518" s="1"/>
-      <c r="L518" s="1" t="s">
+      <c r="L518" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -21813,8 +21125,7 @@
       <c r="J519" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K519" s="1"/>
-      <c r="L519" s="1" t="s">
+      <c r="L519" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -21841,8 +21152,7 @@
       <c r="J520" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="K520" s="1"/>
-      <c r="L520" s="1" t="s">
+      <c r="L520" t="s">
         <v>1893</v>
       </c>
     </row>
@@ -21857,8 +21167,6 @@
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
-      <c r="K521" s="1"/>
-      <c r="L521" s="1"/>
     </row>
     <row r="522" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
@@ -21881,8 +21189,6 @@
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
-      <c r="K522" s="1"/>
-      <c r="L522" s="1"/>
     </row>
     <row r="523" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
@@ -21907,8 +21213,7 @@
       <c r="J523" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="K523" s="1"/>
-      <c r="L523" s="1" t="s">
+      <c r="L523" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -21935,8 +21240,7 @@
       <c r="J524" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="K524" s="1"/>
-      <c r="L524" s="1" t="s">
+      <c r="L524" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -21951,8 +21255,6 @@
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
-      <c r="K525" s="1"/>
-      <c r="L525" s="1"/>
     </row>
     <row r="526" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
@@ -21975,8 +21277,6 @@
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
-      <c r="K526" s="1"/>
-      <c r="L526" s="1"/>
     </row>
     <row r="527" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
@@ -22001,8 +21301,7 @@
       <c r="J527" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K527" s="1"/>
-      <c r="L527" s="1" t="s">
+      <c r="L527" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -22029,12 +21328,11 @@
       <c r="J528" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K528" s="1"/>
-      <c r="L528" s="1" t="s">
+      <c r="L528" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="B529" s="1" t="s">
         <v>1728</v>
@@ -22055,12 +21353,11 @@
       <c r="J529" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K529" s="1"/>
-      <c r="L529" s="1" t="s">
+      <c r="L529" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="B530" s="1" t="s">
         <v>1917</v>
@@ -22081,8 +21378,7 @@
       <c r="J530" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="K530" s="1"/>
-      <c r="L530" s="1" t="s">
+      <c r="L530" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22097,8 +21393,6 @@
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
-      <c r="K531" s="1"/>
-      <c r="L531" s="1"/>
     </row>
     <row r="532" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
@@ -22121,8 +21415,6 @@
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
-      <c r="K532" s="1"/>
-      <c r="L532" s="1"/>
     </row>
     <row r="533" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
@@ -22147,8 +21439,7 @@
       <c r="J533" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="K533" s="1"/>
-      <c r="L533" s="1" t="s">
+      <c r="L533" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -22175,8 +21466,7 @@
       <c r="J534" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="K534" s="1"/>
-      <c r="L534" s="1" t="s">
+      <c r="L534" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -22203,8 +21493,7 @@
       <c r="J535" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="K535" s="1"/>
-      <c r="L535" s="1" t="s">
+      <c r="L535" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -22219,8 +21508,6 @@
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
-      <c r="K536" s="1"/>
-      <c r="L536" s="1"/>
     </row>
     <row r="537" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
@@ -22243,8 +21530,6 @@
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
-      <c r="K537" s="1"/>
-      <c r="L537" s="1"/>
     </row>
     <row r="538" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
@@ -22269,8 +21554,7 @@
       <c r="J538" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="K538" s="1"/>
-      <c r="L538" s="1" t="s">
+      <c r="L538" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -22297,12 +21581,11 @@
       <c r="J539" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="K539" s="1"/>
-      <c r="L539" s="1" t="s">
+      <c r="L539" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="540" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="B540" s="1" t="s">
         <v>1947</v>
@@ -22323,8 +21606,7 @@
       <c r="J540" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="K540" s="1"/>
-      <c r="L540" s="1" t="s">
+      <c r="L540" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -22339,8 +21621,6 @@
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
-      <c r="K541" s="1"/>
-      <c r="L541" s="1"/>
     </row>
     <row r="542" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
@@ -22363,10 +21643,8 @@
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
-      <c r="K542" s="1"/>
-      <c r="L542" s="1"/>
-    </row>
-    <row r="543" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="543" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="B543" s="1" t="s">
         <v>1955</v>
@@ -22387,12 +21665,11 @@
       <c r="J543" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="K543" s="1"/>
-      <c r="L543" s="1" t="s">
+      <c r="L543" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="B544" s="1" t="s">
         <v>1624</v>
@@ -22413,12 +21690,11 @@
       <c r="J544" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="K544" s="1"/>
-      <c r="L544" s="1" t="s">
+      <c r="L544" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="B545" s="1" t="s">
         <v>1694</v>
@@ -22439,12 +21715,11 @@
       <c r="J545" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="K545" s="1"/>
-      <c r="L545" s="1" t="s">
+      <c r="L545" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="546" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="1" t="s">
         <v>1709</v>
@@ -22465,12 +21740,11 @@
       <c r="J546" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="K546" s="1"/>
-      <c r="L546" s="1" t="s">
+      <c r="L546" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="B547" s="1" t="s">
         <v>1761</v>
@@ -22491,12 +21765,11 @@
       <c r="J547" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="K547" s="1"/>
-      <c r="L547" s="1" t="s">
+      <c r="L547" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="1" t="s">
         <v>1871</v>
@@ -22517,8 +21790,7 @@
       <c r="J548" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="K548" s="1"/>
-      <c r="L548" s="1" t="s">
+      <c r="L548" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -22533,8 +21805,6 @@
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
-      <c r="K549" s="1"/>
-      <c r="L549" s="1"/>
     </row>
     <row r="550" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
@@ -22557,8 +21827,6 @@
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
-      <c r="K550" s="1"/>
-      <c r="L550" s="1"/>
     </row>
     <row r="551" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
@@ -22583,8 +21851,7 @@
       <c r="J551" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K551" s="1"/>
-      <c r="L551" s="1" t="s">
+      <c r="L551" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -22611,8 +21878,7 @@
       <c r="J552" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K552" s="1"/>
-      <c r="L552" s="1" t="s">
+      <c r="L552" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -22639,8 +21905,7 @@
       <c r="J553" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K553" s="1"/>
-      <c r="L553" s="1" t="s">
+      <c r="L553" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -22667,8 +21932,7 @@
       <c r="J554" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K554" s="1"/>
-      <c r="L554" s="1" t="s">
+      <c r="L554" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -22695,8 +21959,7 @@
       <c r="J555" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K555" s="1"/>
-      <c r="L555" s="1" t="s">
+      <c r="L555" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -22723,12 +21986,11 @@
       <c r="J556" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K556" s="1"/>
-      <c r="L556" s="1" t="s">
+      <c r="L556" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="1" t="s">
         <v>1995</v>
@@ -22749,8 +22011,7 @@
       <c r="J557" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K557" s="1"/>
-      <c r="L557" s="1" t="s">
+      <c r="L557" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -22777,8 +22038,7 @@
       <c r="J558" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="K558" s="1"/>
-      <c r="L558" s="1" t="s">
+      <c r="L558" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -22793,8 +22053,6 @@
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
-      <c r="K559" s="1"/>
-      <c r="L559" s="1"/>
     </row>
     <row r="560" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
@@ -22817,10 +22075,8 @@
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
-      <c r="K560" s="1"/>
-      <c r="L560" s="1"/>
-    </row>
-    <row r="561" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="561" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="1" t="s">
         <v>1598</v>
@@ -22843,12 +22099,11 @@
       <c r="J561" s="1" t="s">
         <v>2011</v>
       </c>
-      <c r="K561" s="1"/>
-      <c r="L561" s="1" t="s">
+      <c r="L561" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="B562" s="1" t="s">
         <v>2013</v>
@@ -22871,8 +22126,7 @@
       <c r="J562" s="1" t="s">
         <v>2011</v>
       </c>
-      <c r="K562" s="1"/>
-      <c r="L562" s="1" t="s">
+      <c r="L562" t="s">
         <v>2018</v>
       </c>
     </row>
@@ -22899,8 +22153,7 @@
       <c r="J563" s="1" t="s">
         <v>2011</v>
       </c>
-      <c r="K563" s="1"/>
-      <c r="L563" s="1" t="s">
+      <c r="L563" t="s">
         <v>1602</v>
       </c>
     </row>
@@ -22915,8 +22168,6 @@
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
-      <c r="K564" s="1"/>
-      <c r="L564" s="1"/>
     </row>
     <row r="565" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
@@ -22939,10 +22190,8 @@
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
-      <c r="K565" s="1"/>
-      <c r="L565" s="1"/>
-    </row>
-    <row r="566" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="566" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="B566" s="1" t="s">
         <v>2026</v>
@@ -22963,12 +22212,11 @@
       <c r="J566" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K566" s="1"/>
-      <c r="L566" s="1" t="s">
+      <c r="L566" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="1" t="s">
         <v>1531</v>
@@ -22991,8 +22239,7 @@
       <c r="J567" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K567" s="1"/>
-      <c r="L567" s="1" t="s">
+      <c r="L567" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -23019,8 +22266,7 @@
       <c r="J568" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K568" s="1"/>
-      <c r="L568" s="1" t="s">
+      <c r="L568" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -23047,8 +22293,7 @@
       <c r="J569" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K569" s="1"/>
-      <c r="L569" s="1" t="s">
+      <c r="L569" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -23075,12 +22320,11 @@
       <c r="J570" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K570" s="1"/>
-      <c r="L570" s="1" t="s">
+      <c r="L570" t="s">
         <v>2043</v>
       </c>
     </row>
-    <row r="571" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="1" t="s">
         <v>1659</v>
@@ -23101,12 +22345,11 @@
       <c r="J571" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K571" s="1"/>
-      <c r="L571" s="1" t="s">
+      <c r="L571" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="1" t="s">
         <v>900</v>
@@ -23127,12 +22370,11 @@
       <c r="J572" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K572" s="1"/>
-      <c r="L572" s="1" t="s">
+      <c r="L572" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="B573" s="1" t="s">
         <v>1674</v>
@@ -23155,12 +22397,11 @@
       <c r="J573" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K573" s="1"/>
-      <c r="L573" s="1" t="s">
+      <c r="L573" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="B574" s="1" t="s">
         <v>945</v>
@@ -23183,8 +22424,7 @@
       <c r="J574" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K574" s="1"/>
-      <c r="L574" s="1" t="s">
+      <c r="L574" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -23211,8 +22451,7 @@
       <c r="J575" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K575" s="1"/>
-      <c r="L575" s="1" t="s">
+      <c r="L575" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -23237,8 +22476,7 @@
       <c r="J576" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K576" s="1"/>
-      <c r="L576" s="1" t="s">
+      <c r="L576" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -23263,8 +22501,7 @@
       <c r="J577" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K577" s="1"/>
-      <c r="L577" s="1" t="s">
+      <c r="L577" t="s">
         <v>2065</v>
       </c>
     </row>
@@ -23289,8 +22526,7 @@
       <c r="J578" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K578" s="1"/>
-      <c r="L578" s="1" t="s">
+      <c r="L578" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -23315,8 +22551,7 @@
       <c r="J579" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K579" s="1"/>
-      <c r="L579" s="1" t="s">
+      <c r="L579" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -23341,12 +22576,11 @@
       <c r="J580" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K580" s="1"/>
-      <c r="L580" s="1" t="s">
+      <c r="L580" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="581" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="1" t="s">
         <v>1719</v>
@@ -23369,12 +22603,11 @@
       <c r="J581" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K581" s="1"/>
-      <c r="L581" s="1" t="s">
+      <c r="L581" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="582" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="B582" s="1" t="s">
         <v>1723</v>
@@ -23397,8 +22630,7 @@
       <c r="J582" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K582" s="1"/>
-      <c r="L582" s="1" t="s">
+      <c r="L582" t="s">
         <v>2084</v>
       </c>
     </row>
@@ -23423,8 +22655,7 @@
       <c r="J583" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K583" s="1"/>
-      <c r="L583" s="1" t="s">
+      <c r="L583" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -23451,8 +22682,7 @@
       <c r="J584" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K584" s="1"/>
-      <c r="L584" s="1" t="s">
+      <c r="L584" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -23479,8 +22709,7 @@
       <c r="J585" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K585" s="1"/>
-      <c r="L585" s="1" t="s">
+      <c r="L585" t="s">
         <v>2095</v>
       </c>
     </row>
@@ -23505,12 +22734,11 @@
       <c r="J586" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K586" s="1"/>
-      <c r="L586" s="1" t="s">
+      <c r="L586" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="587" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="1" t="s">
         <v>1779</v>
@@ -23531,12 +22759,11 @@
       <c r="J587" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K587" s="1"/>
-      <c r="L587" s="1" t="s">
+      <c r="L587" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="588" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="B588" s="1" t="s">
         <v>1783</v>
@@ -23557,8 +22784,7 @@
       <c r="J588" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K588" s="1"/>
-      <c r="L588" s="1" t="s">
+      <c r="L588" t="s">
         <v>1584</v>
       </c>
     </row>
@@ -23583,12 +22809,11 @@
       <c r="J589" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K589" s="1"/>
-      <c r="L589" s="1" t="s">
+      <c r="L589" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="B590" s="1" t="s">
         <v>1808</v>
@@ -23611,12 +22836,11 @@
       <c r="J590" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K590" s="1"/>
-      <c r="L590" s="1" t="s">
+      <c r="L590" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="591" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="1" t="s">
         <v>686</v>
@@ -23637,8 +22861,7 @@
       <c r="J591" s="1" t="s">
         <v>2030</v>
       </c>
-      <c r="K591" s="1"/>
-      <c r="L591" s="1" t="s">
+      <c r="L591" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -23653,8 +22876,6 @@
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
-      <c r="K592" s="1"/>
-      <c r="L592" s="1"/>
     </row>
     <row r="593" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
@@ -23677,10 +22898,8 @@
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
-      <c r="K593" s="1"/>
-      <c r="L593" s="1"/>
-    </row>
-    <row r="594" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="594" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="B594" s="1" t="s">
         <v>1686</v>
@@ -23701,8 +22920,7 @@
       <c r="J594" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="K594" s="1"/>
-      <c r="L594" s="1" t="s">
+      <c r="L594" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -23729,12 +22947,11 @@
       <c r="J595" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="K595" s="1"/>
-      <c r="L595" s="1" t="s">
+      <c r="L595" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="596" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="B596" s="1" t="s">
         <v>1751</v>
@@ -23755,12 +22972,11 @@
       <c r="J596" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="K596" s="1"/>
-      <c r="L596" s="1" t="s">
+      <c r="L596" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="1" t="s">
         <v>1296</v>
@@ -23781,8 +22997,7 @@
       <c r="J597" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="K597" s="1"/>
-      <c r="L597" s="1" t="s">
+      <c r="L597" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -23809,12 +23024,11 @@
       <c r="J598" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="K598" s="1"/>
-      <c r="L598" s="1" t="s">
+      <c r="L598" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="B599" s="1" t="s">
         <v>1306</v>
@@ -23835,8 +23049,7 @@
       <c r="J599" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="K599" s="1"/>
-      <c r="L599" s="1" t="s">
+      <c r="L599" t="s">
         <v>2133</v>
       </c>
     </row>
@@ -23851,8 +23064,6 @@
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
-      <c r="K600" s="1"/>
-      <c r="L600" s="1"/>
     </row>
     <row r="601" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
@@ -23875,8 +23086,6 @@
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
-      <c r="K601" s="1"/>
-      <c r="L601" s="1"/>
     </row>
     <row r="602" spans="1:12" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
@@ -23903,8 +23112,7 @@
       <c r="J602" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K602" s="1"/>
-      <c r="L602" s="1" t="s">
+      <c r="L602" t="s">
         <v>2130</v>
       </c>
     </row>
@@ -23933,12 +23141,11 @@
       <c r="J603" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K603" s="1"/>
-      <c r="L603" s="1" t="s">
+      <c r="L603" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="B604" s="1" t="s">
         <v>2149</v>
@@ -23959,12 +23166,11 @@
       <c r="J604" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K604" s="1"/>
-      <c r="L604" s="1" t="s">
+      <c r="L604" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="B605" s="1" t="s">
         <v>2154</v>
@@ -23987,12 +23193,11 @@
       <c r="J605" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K605" s="1"/>
-      <c r="L605" s="1" t="s">
+      <c r="L605" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="B606" s="1" t="s">
         <v>2159</v>
@@ -24015,12 +23220,11 @@
       <c r="J606" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K606" s="1"/>
-      <c r="L606" s="1" t="s">
+      <c r="L606" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="1" t="s">
         <v>1612</v>
@@ -24043,12 +23247,11 @@
       <c r="J607" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K607" s="1"/>
-      <c r="L607" s="1" t="s">
+      <c r="L607" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="608" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="B608" s="1" t="s">
         <v>1616</v>
@@ -24069,12 +23272,11 @@
       <c r="J608" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K608" s="1"/>
-      <c r="L608" s="1" t="s">
+      <c r="L608" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="609" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="B609" s="1" t="s">
         <v>2169</v>
@@ -24097,12 +23299,11 @@
       <c r="J609" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K609" s="1"/>
-      <c r="L609" s="1" t="s">
+      <c r="L609" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="610" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="B610" s="1" t="s">
         <v>1638</v>
@@ -24123,12 +23324,11 @@
       <c r="J610" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K610" s="1"/>
-      <c r="L610" s="1" t="s">
+      <c r="L610" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="611" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="1" t="s">
         <v>2178</v>
@@ -24151,12 +23351,11 @@
       <c r="J611" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K611" s="1"/>
-      <c r="L611" s="1" t="s">
+      <c r="L611" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="612" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="B612" s="1" t="s">
         <v>1665</v>
@@ -24177,12 +23376,11 @@
       <c r="J612" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K612" s="1"/>
-      <c r="L612" s="1" t="s">
+      <c r="L612" t="s">
         <v>2185</v>
       </c>
     </row>
-    <row r="613" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="B613" s="1" t="s">
         <v>2186</v>
@@ -24205,12 +23403,11 @@
       <c r="J613" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K613" s="1"/>
-      <c r="L613" s="1" t="s">
+      <c r="L613" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="614" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="B614" s="1" t="s">
         <v>2191</v>
@@ -24233,12 +23430,11 @@
       <c r="J614" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K614" s="1"/>
-      <c r="L614" s="1" t="s">
+      <c r="L614" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="615" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="B615" s="1" t="s">
         <v>2195</v>
@@ -24261,12 +23457,11 @@
       <c r="J615" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K615" s="1"/>
-      <c r="L615" s="1" t="s">
+      <c r="L615" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="616" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="B616" s="1" t="s">
         <v>2200</v>
@@ -24289,12 +23484,11 @@
       <c r="J616" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K616" s="1"/>
-      <c r="L616" s="1" t="s">
+      <c r="L616" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="617" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="1" t="s">
         <v>2205</v>
@@ -24315,12 +23509,11 @@
       <c r="J617" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K617" s="1"/>
-      <c r="L617" s="1" t="s">
+      <c r="L617" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="618" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="B618" s="1" t="s">
         <v>2209</v>
@@ -24341,8 +23534,7 @@
       <c r="J618" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K618" s="1"/>
-      <c r="L618" s="1" t="s">
+      <c r="L618" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -24371,12 +23563,11 @@
       <c r="J619" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K619" s="1"/>
-      <c r="L619" s="1" t="s">
+      <c r="L619" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="620" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="B620" s="1" t="s">
         <v>2218</v>
@@ -24401,12 +23592,11 @@
       <c r="J620" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K620" s="1"/>
-      <c r="L620" s="1" t="s">
+      <c r="L620" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="621" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="1" t="s">
         <v>2223</v>
@@ -24431,12 +23621,11 @@
       <c r="J621" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K621" s="1"/>
-      <c r="L621" s="1" t="s">
+      <c r="L621" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="622" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="B622" s="1" t="s">
         <v>2228</v>
@@ -24461,12 +23650,11 @@
       <c r="J622" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K622" s="1"/>
-      <c r="L622" s="1" t="s">
+      <c r="L622" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="623" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="B623" s="1" t="s">
         <v>2233</v>
@@ -24491,12 +23679,11 @@
       <c r="J623" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K623" s="1"/>
-      <c r="L623" s="1" t="s">
+      <c r="L623" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="624" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="B624" s="1" t="s">
         <v>2238</v>
@@ -24519,12 +23706,11 @@
       <c r="J624" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K624" s="1"/>
-      <c r="L624" s="1" t="s">
+      <c r="L624" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="625" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="B625" s="1" t="s">
         <v>2243</v>
@@ -24547,12 +23733,11 @@
       <c r="J625" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K625" s="1"/>
-      <c r="L625" s="1" t="s">
+      <c r="L625" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="626" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="B626" s="1" t="s">
         <v>2248</v>
@@ -24575,12 +23760,11 @@
       <c r="J626" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K626" s="1"/>
-      <c r="L626" s="1" t="s">
+      <c r="L626" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="627" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
         <v>1751</v>
@@ -24601,12 +23785,11 @@
       <c r="J627" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K627" s="1"/>
-      <c r="L627" s="1" t="s">
+      <c r="L627" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="628" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="B628" s="1" t="s">
         <v>2255</v>
@@ -24629,12 +23812,11 @@
       <c r="J628" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K628" s="1"/>
-      <c r="L628" s="1" t="s">
+      <c r="L628" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="629" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="B629" s="1" t="s">
         <v>2125</v>
@@ -24657,12 +23839,11 @@
       <c r="J629" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K629" s="1"/>
-      <c r="L629" s="1" t="s">
+      <c r="L629" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="630" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="B630" s="1" t="s">
         <v>1834</v>
@@ -24685,12 +23866,11 @@
       <c r="J630" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K630" s="1"/>
-      <c r="L630" s="1" t="s">
+      <c r="L630" t="s">
         <v>2266</v>
       </c>
     </row>
-    <row r="631" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="1" t="s">
         <v>1838</v>
@@ -24713,12 +23893,11 @@
       <c r="J631" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K631" s="1"/>
-      <c r="L631" s="1" t="s">
+      <c r="L631" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="632" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="B632" s="1" t="s">
         <v>2270</v>
@@ -24741,8 +23920,7 @@
       <c r="J632" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K632" s="1"/>
-      <c r="L632" s="1" t="s">
+      <c r="L632" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -24769,12 +23947,11 @@
       <c r="J633" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K633" s="1"/>
-      <c r="L633" s="1" t="s">
+      <c r="L633" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="634" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="B634" s="1" t="s">
         <v>2280</v>
@@ -24797,12 +23974,11 @@
       <c r="J634" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K634" s="1"/>
-      <c r="L634" s="1" t="s">
+      <c r="L634" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="635" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1" t="s">
         <v>2285</v>
@@ -24825,12 +24001,11 @@
       <c r="J635" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K635" s="1"/>
-      <c r="L635" s="1" t="s">
+      <c r="L635" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="636" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="B636" s="1" t="s">
         <v>1301</v>
@@ -24853,8 +24028,7 @@
       <c r="J636" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K636" s="1"/>
-      <c r="L636" s="1" t="s">
+      <c r="L636" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -24881,12 +24055,11 @@
       <c r="J637" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K637" s="1"/>
-      <c r="L637" s="1" t="s">
+      <c r="L637" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="638" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="B638" s="1" t="s">
         <v>1845</v>
@@ -24909,8 +24082,7 @@
       <c r="J638" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K638" s="1"/>
-      <c r="L638" s="1" t="s">
+      <c r="L638" t="s">
         <v>2302</v>
       </c>
     </row>
@@ -24937,12 +24109,11 @@
       <c r="J639" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K639" s="1"/>
-      <c r="L639" s="1" t="s">
+      <c r="L639" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="640" spans="1:12" ht="57.6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="B640" s="1" t="s">
         <v>2306</v>
@@ -24965,12 +24136,11 @@
       <c r="J640" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K640" s="1"/>
-      <c r="L640" s="1" t="s">
+      <c r="L640" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="641" spans="1:12" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -24981,10 +24151,8 @@
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
-      <c r="K641" s="1"/>
-      <c r="L641" s="1"/>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>2311</v>
       </c>
@@ -25005,10 +24173,8 @@
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
-      <c r="K642" s="1"/>
-      <c r="L642" s="1"/>
-    </row>
-    <row r="643" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="643" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="B643" s="1" t="s">
         <v>2315</v>
@@ -25031,10 +24197,8 @@
       <c r="J643" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K643" s="1"/>
-      <c r="L643" s="1"/>
-    </row>
-    <row r="644" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="644" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="B644" s="1" t="s">
         <v>2321</v>
@@ -25055,10 +24219,8 @@
       <c r="J644" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K644" s="1"/>
-      <c r="L644" s="1"/>
-    </row>
-    <row r="645" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="645" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="B645" s="1" t="s">
         <v>2324</v>
@@ -25079,10 +24241,8 @@
       <c r="J645" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K645" s="1"/>
-      <c r="L645" s="1"/>
-    </row>
-    <row r="646" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="646" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="s">
         <v>2327</v>
@@ -25103,10 +24263,8 @@
       <c r="J646" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K646" s="1"/>
-      <c r="L646" s="1"/>
-    </row>
-    <row r="647" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="647" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="1" t="s">
         <v>2330</v>
@@ -25127,10 +24285,8 @@
       <c r="J647" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K647" s="1"/>
-      <c r="L647" s="1"/>
-    </row>
-    <row r="648" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="648" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="B648" s="1" t="s">
         <v>2333</v>
@@ -25151,10 +24307,8 @@
       <c r="J648" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K648" s="1"/>
-      <c r="L648" s="1"/>
-    </row>
-    <row r="649" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="649" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="B649" s="1" t="s">
         <v>2336</v>
@@ -25175,10 +24329,8 @@
       <c r="J649" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K649" s="1"/>
-      <c r="L649" s="1"/>
-    </row>
-    <row r="650" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="650" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="B650" s="1" t="s">
         <v>2339</v>
@@ -25199,10 +24351,8 @@
       <c r="J650" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K650" s="1"/>
-      <c r="L650" s="1"/>
-    </row>
-    <row r="651" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="651" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="1" t="s">
         <v>2342</v>
@@ -25223,10 +24373,8 @@
       <c r="J651" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K651" s="1"/>
-      <c r="L651" s="1"/>
-    </row>
-    <row r="652" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="652" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="B652" s="1" t="s">
         <v>2345</v>
@@ -25249,10 +24397,8 @@
       <c r="J652" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K652" s="1"/>
-      <c r="L652" s="1"/>
-    </row>
-    <row r="653" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="653" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="B653" s="1" t="s">
         <v>2349</v>
@@ -25273,10 +24419,8 @@
       <c r="J653" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K653" s="1"/>
-      <c r="L653" s="1"/>
-    </row>
-    <row r="654" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="654" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="B654" s="1" t="s">
         <v>2352</v>
@@ -25297,10 +24441,8 @@
       <c r="J654" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K654" s="1"/>
-      <c r="L654" s="1"/>
-    </row>
-    <row r="655" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="655" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="B655" s="1" t="s">
         <v>2356</v>
@@ -25321,10 +24463,8 @@
       <c r="J655" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K655" s="1"/>
-      <c r="L655" s="1"/>
-    </row>
-    <row r="656" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="656" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="B656" s="1" t="s">
         <v>2359</v>
@@ -25345,10 +24485,8 @@
       <c r="J656" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K656" s="1"/>
-      <c r="L656" s="1"/>
-    </row>
-    <row r="657" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="657" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="1" t="s">
         <v>2362</v>
@@ -25369,10 +24507,8 @@
       <c r="J657" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K657" s="1"/>
-      <c r="L657" s="1"/>
-    </row>
-    <row r="658" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="658" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="B658" s="1" t="s">
         <v>2366</v>
@@ -25393,10 +24529,8 @@
       <c r="J658" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K658" s="1"/>
-      <c r="L658" s="1"/>
-    </row>
-    <row r="659" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="659" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="B659" s="1" t="s">
         <v>2369</v>
@@ -25417,10 +24551,8 @@
       <c r="J659" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K659" s="1"/>
-      <c r="L659" s="1"/>
-    </row>
-    <row r="660" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="660" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="B660" s="1" t="s">
         <v>2372</v>
@@ -25441,10 +24573,8 @@
       <c r="J660" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K660" s="1"/>
-      <c r="L660" s="1"/>
-    </row>
-    <row r="661" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="661" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="1" t="s">
         <v>2375</v>
@@ -25465,10 +24595,8 @@
       <c r="J661" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K661" s="1"/>
-      <c r="L661" s="1"/>
-    </row>
-    <row r="662" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="662" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="B662" s="1" t="s">
         <v>2378</v>
@@ -25489,10 +24617,8 @@
       <c r="J662" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K662" s="1"/>
-      <c r="L662" s="1"/>
-    </row>
-    <row r="663" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="663" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="B663" s="1" t="s">
         <v>2381</v>
@@ -25513,10 +24639,8 @@
       <c r="J663" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K663" s="1"/>
-      <c r="L663" s="1"/>
-    </row>
-    <row r="664" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="664" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="B664" s="1" t="s">
         <v>2384</v>
@@ -25537,10 +24661,8 @@
       <c r="J664" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K664" s="1"/>
-      <c r="L664" s="1"/>
-    </row>
-    <row r="665" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="665" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="B665" s="1" t="s">
         <v>2387</v>
@@ -25561,10 +24683,8 @@
       <c r="J665" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K665" s="1"/>
-      <c r="L665" s="1"/>
-    </row>
-    <row r="666" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="666" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="B666" s="1" t="s">
         <v>2390</v>
@@ -25585,10 +24705,8 @@
       <c r="J666" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K666" s="1"/>
-      <c r="L666" s="1"/>
-    </row>
-    <row r="667" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="667" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="1" t="s">
         <v>2393</v>
@@ -25609,10 +24727,8 @@
       <c r="J667" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K667" s="1"/>
-      <c r="L667" s="1"/>
-    </row>
-    <row r="668" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="668" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="B668" s="1" t="s">
         <v>2396</v>
@@ -25633,10 +24749,8 @@
       <c r="J668" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K668" s="1"/>
-      <c r="L668" s="1"/>
-    </row>
-    <row r="669" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="669" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="B669" s="1" t="s">
         <v>2399</v>
@@ -25657,10 +24771,8 @@
       <c r="J669" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K669" s="1"/>
-      <c r="L669" s="1"/>
-    </row>
-    <row r="670" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="670" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="B670" s="1" t="s">
         <v>2402</v>
@@ -25681,10 +24793,8 @@
       <c r="J670" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K670" s="1"/>
-      <c r="L670" s="1"/>
-    </row>
-    <row r="671" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="671" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="1" t="s">
         <v>2405</v>
@@ -25705,10 +24815,8 @@
       <c r="J671" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K671" s="1"/>
-      <c r="L671" s="1"/>
-    </row>
-    <row r="672" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="672" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="B672" s="1" t="s">
         <v>2408</v>
@@ -25729,10 +24837,8 @@
       <c r="J672" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K672" s="1"/>
-      <c r="L672" s="1"/>
-    </row>
-    <row r="673" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="673" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="B673" s="1" t="s">
         <v>2412</v>
@@ -25753,10 +24859,8 @@
       <c r="J673" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K673" s="1"/>
-      <c r="L673" s="1"/>
-    </row>
-    <row r="674" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="674" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="B674" s="1" t="s">
         <v>2415</v>
@@ -25777,10 +24881,8 @@
       <c r="J674" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K674" s="1"/>
-      <c r="L674" s="1"/>
-    </row>
-    <row r="675" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="675" spans="1:10" ht="28.8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="B675" s="1" t="s">
         <v>2418</v>
@@ -25801,10 +24903,8 @@
       <c r="J675" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K675" s="1"/>
-      <c r="L675" s="1"/>
-    </row>
-    <row r="676" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="676" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="1" t="s">
         <v>2421</v>
@@ -25825,10 +24925,8 @@
       <c r="J676" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K676" s="1"/>
-      <c r="L676" s="1"/>
-    </row>
-    <row r="677" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="677" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="1" t="s">
         <v>2425</v>
@@ -25849,10 +24947,8 @@
       <c r="J677" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K677" s="1"/>
-      <c r="L677" s="1"/>
-    </row>
-    <row r="678" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="678" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="B678" s="1" t="s">
         <v>2428</v>
@@ -25873,10 +24969,8 @@
       <c r="J678" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K678" s="1"/>
-      <c r="L678" s="1"/>
-    </row>
-    <row r="679" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="679" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="B679" s="1" t="s">
         <v>2431</v>
@@ -25897,10 +24991,8 @@
       <c r="J679" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K679" s="1"/>
-      <c r="L679" s="1"/>
-    </row>
-    <row r="680" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="680" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="B680" s="1" t="s">
         <v>2434</v>
@@ -25921,10 +25013,8 @@
       <c r="J680" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K680" s="1"/>
-      <c r="L680" s="1"/>
-    </row>
-    <row r="681" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="681" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="1" t="s">
         <v>2437</v>
@@ -25945,10 +25035,8 @@
       <c r="J681" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K681" s="1"/>
-      <c r="L681" s="1"/>
-    </row>
-    <row r="682" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="682" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="B682" s="1" t="s">
         <v>2440</v>
@@ -25969,10 +25057,8 @@
       <c r="J682" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K682" s="1"/>
-      <c r="L682" s="1"/>
-    </row>
-    <row r="683" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="683" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="B683" s="1" t="s">
         <v>2443</v>
@@ -25993,10 +25079,8 @@
       <c r="J683" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K683" s="1"/>
-      <c r="L683" s="1"/>
-    </row>
-    <row r="684" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="684" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="B684" s="1" t="s">
         <v>2446</v>
@@ -26019,10 +25103,8 @@
       <c r="J684" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K684" s="1"/>
-      <c r="L684" s="1"/>
-    </row>
-    <row r="685" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="685" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="B685" s="1" t="s">
         <v>2450</v>
@@ -26045,10 +25127,8 @@
       <c r="J685" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K685" s="1"/>
-      <c r="L685" s="1"/>
-    </row>
-    <row r="686" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="686" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="B686" s="1" t="s">
         <v>2453</v>
@@ -26071,10 +25151,8 @@
       <c r="J686" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K686" s="1"/>
-      <c r="L686" s="1"/>
-    </row>
-    <row r="687" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="687" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="1" t="s">
         <v>2456</v>
@@ -26097,10 +25175,8 @@
       <c r="J687" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K687" s="1"/>
-      <c r="L687" s="1"/>
-    </row>
-    <row r="688" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="688" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="B688" s="1" t="s">
         <v>2460</v>
@@ -26123,10 +25199,8 @@
       <c r="J688" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K688" s="1"/>
-      <c r="L688" s="1"/>
-    </row>
-    <row r="689" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="689" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
         <v>2463</v>
@@ -26149,10 +25223,8 @@
       <c r="J689" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K689" s="1"/>
-      <c r="L689" s="1"/>
-    </row>
-    <row r="690" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="690" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
         <v>2466</v>
@@ -26173,10 +25245,8 @@
       <c r="J690" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K690" s="1"/>
-      <c r="L690" s="1"/>
-    </row>
-    <row r="691" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="691" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="1" t="s">
         <v>2469</v>
@@ -26197,10 +25267,8 @@
       <c r="J691" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K691" s="1"/>
-      <c r="L691" s="1"/>
-    </row>
-    <row r="692" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="692" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="B692" s="1" t="s">
         <v>2472</v>
@@ -26221,10 +25289,8 @@
       <c r="J692" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K692" s="1"/>
-      <c r="L692" s="1"/>
-    </row>
-    <row r="693" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="693" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="B693" s="1" t="s">
         <v>2475</v>
@@ -26245,10 +25311,8 @@
       <c r="J693" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K693" s="1"/>
-      <c r="L693" s="1"/>
-    </row>
-    <row r="694" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="694" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="B694" s="1" t="s">
         <v>2478</v>
@@ -26269,10 +25333,8 @@
       <c r="J694" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K694" s="1"/>
-      <c r="L694" s="1"/>
-    </row>
-    <row r="695" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="695" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="B695" s="1" t="s">
         <v>2481</v>
@@ -26293,10 +25355,8 @@
       <c r="J695" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K695" s="1"/>
-      <c r="L695" s="1"/>
-    </row>
-    <row r="696" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="696" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="B696" s="1" t="s">
         <v>2484</v>
@@ -26317,10 +25377,8 @@
       <c r="J696" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K696" s="1"/>
-      <c r="L696" s="1"/>
-    </row>
-    <row r="697" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="697" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="1" t="s">
         <v>2487</v>
@@ -26341,10 +25399,8 @@
       <c r="J697" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K697" s="1"/>
-      <c r="L697" s="1"/>
-    </row>
-    <row r="698" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="698" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="B698" s="1" t="s">
         <v>2490</v>
@@ -26365,10 +25421,8 @@
       <c r="J698" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K698" s="1"/>
-      <c r="L698" s="1"/>
-    </row>
-    <row r="699" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="699" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="B699" s="1" t="s">
         <v>2493</v>
@@ -26389,10 +25443,8 @@
       <c r="J699" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K699" s="1"/>
-      <c r="L699" s="1"/>
-    </row>
-    <row r="700" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="700" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="s">
         <v>2496</v>
@@ -26413,10 +25465,8 @@
       <c r="J700" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K700" s="1"/>
-      <c r="L700" s="1"/>
-    </row>
-    <row r="701" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="701" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="1" t="s">
         <v>2499</v>
@@ -26437,10 +25487,8 @@
       <c r="J701" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K701" s="1"/>
-      <c r="L701" s="1"/>
-    </row>
-    <row r="702" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="702" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="B702" s="1" t="s">
         <v>2502</v>
@@ -26461,10 +25509,8 @@
       <c r="J702" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K702" s="1"/>
-      <c r="L702" s="1"/>
-    </row>
-    <row r="703" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="703" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="B703" s="1" t="s">
         <v>2505</v>
@@ -26485,10 +25531,8 @@
       <c r="J703" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K703" s="1"/>
-      <c r="L703" s="1"/>
-    </row>
-    <row r="704" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="704" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="B704" s="1" t="s">
         <v>2508</v>
@@ -26509,10 +25553,8 @@
       <c r="J704" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K704" s="1"/>
-      <c r="L704" s="1"/>
-    </row>
-    <row r="705" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="705" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="B705" s="1" t="s">
         <v>2511</v>
@@ -26533,10 +25575,8 @@
       <c r="J705" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K705" s="1"/>
-      <c r="L705" s="1"/>
-    </row>
-    <row r="706" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="706" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="B706" s="1" t="s">
         <v>2514</v>
@@ -26557,10 +25597,8 @@
       <c r="J706" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K706" s="1"/>
-      <c r="L706" s="1"/>
-    </row>
-    <row r="707" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="707" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="1" t="s">
         <v>2517</v>
@@ -26581,10 +25619,8 @@
       <c r="J707" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K707" s="1"/>
-      <c r="L707" s="1"/>
-    </row>
-    <row r="708" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="708" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="B708" s="1" t="s">
         <v>2520</v>
@@ -26605,10 +25641,8 @@
       <c r="J708" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K708" s="1"/>
-      <c r="L708" s="1"/>
-    </row>
-    <row r="709" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="709" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="B709" s="1" t="s">
         <v>2523</v>
@@ -26629,10 +25663,8 @@
       <c r="J709" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K709" s="1"/>
-      <c r="L709" s="1"/>
-    </row>
-    <row r="710" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="710" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="B710" s="1" t="s">
         <v>2526</v>
@@ -26653,10 +25685,8 @@
       <c r="J710" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K710" s="1"/>
-      <c r="L710" s="1"/>
-    </row>
-    <row r="711" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="711" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="1" t="s">
         <v>2529</v>
@@ -26677,10 +25707,8 @@
       <c r="J711" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K711" s="1"/>
-      <c r="L711" s="1"/>
-    </row>
-    <row r="712" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="712" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="B712" s="1" t="s">
         <v>2532</v>
@@ -26701,10 +25729,8 @@
       <c r="J712" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K712" s="1"/>
-      <c r="L712" s="1"/>
-    </row>
-    <row r="713" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="713" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="B713" s="1" t="s">
         <v>2535</v>
@@ -26725,10 +25751,8 @@
       <c r="J713" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K713" s="1"/>
-      <c r="L713" s="1"/>
-    </row>
-    <row r="714" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="714" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="B714" s="1" t="s">
         <v>2538</v>
@@ -26749,10 +25773,8 @@
       <c r="J714" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K714" s="1"/>
-      <c r="L714" s="1"/>
-    </row>
-    <row r="715" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="715" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="B715" s="1" t="s">
         <v>2541</v>
@@ -26773,10 +25795,8 @@
       <c r="J715" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K715" s="1"/>
-      <c r="L715" s="1"/>
-    </row>
-    <row r="716" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="716" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="B716" s="1" t="s">
         <v>2544</v>
@@ -26797,10 +25817,8 @@
       <c r="J716" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K716" s="1"/>
-      <c r="L716" s="1"/>
-    </row>
-    <row r="717" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="717" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="1" t="s">
         <v>2547</v>
@@ -26821,10 +25839,8 @@
       <c r="J717" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K717" s="1"/>
-      <c r="L717" s="1"/>
-    </row>
-    <row r="718" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="718" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="B718" s="1" t="s">
         <v>2550</v>
@@ -26845,10 +25861,8 @@
       <c r="J718" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K718" s="1"/>
-      <c r="L718" s="1"/>
-    </row>
-    <row r="719" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="719" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="B719" s="1" t="s">
         <v>2553</v>
@@ -26869,10 +25883,8 @@
       <c r="J719" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K719" s="1"/>
-      <c r="L719" s="1"/>
-    </row>
-    <row r="720" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="720" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="B720" s="1" t="s">
         <v>2556</v>
@@ -26893,10 +25905,8 @@
       <c r="J720" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K720" s="1"/>
-      <c r="L720" s="1"/>
-    </row>
-    <row r="721" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="721" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="1" t="s">
         <v>2559</v>
@@ -26917,10 +25927,8 @@
       <c r="J721" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K721" s="1"/>
-      <c r="L721" s="1"/>
-    </row>
-    <row r="722" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="722" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="B722" s="1" t="s">
         <v>2562</v>
@@ -26941,10 +25949,8 @@
       <c r="J722" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K722" s="1"/>
-      <c r="L722" s="1"/>
-    </row>
-    <row r="723" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="723" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="B723" s="1" t="s">
         <v>2565</v>
@@ -26965,10 +25971,8 @@
       <c r="J723" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K723" s="1"/>
-      <c r="L723" s="1"/>
-    </row>
-    <row r="724" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="724" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="B724" s="1" t="s">
         <v>2568</v>
@@ -26989,10 +25993,8 @@
       <c r="J724" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K724" s="1"/>
-      <c r="L724" s="1"/>
-    </row>
-    <row r="725" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="725" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="B725" s="1" t="s">
         <v>2571</v>
@@ -27013,10 +26015,8 @@
       <c r="J725" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K725" s="1"/>
-      <c r="L725" s="1"/>
-    </row>
-    <row r="726" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="726" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="B726" s="1" t="s">
         <v>2574</v>
@@ -27037,10 +26037,8 @@
       <c r="J726" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K726" s="1"/>
-      <c r="L726" s="1"/>
-    </row>
-    <row r="727" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="727" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="1" t="s">
         <v>2577</v>
@@ -27061,10 +26059,8 @@
       <c r="J727" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K727" s="1"/>
-      <c r="L727" s="1"/>
-    </row>
-    <row r="728" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="728" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="B728" s="1" t="s">
         <v>2580</v>
@@ -27085,10 +26081,8 @@
       <c r="J728" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K728" s="1"/>
-      <c r="L728" s="1"/>
-    </row>
-    <row r="729" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="729" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="B729" s="1" t="s">
         <v>2583</v>
@@ -27109,10 +26103,8 @@
       <c r="J729" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K729" s="1"/>
-      <c r="L729" s="1"/>
-    </row>
-    <row r="730" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="730" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="B730" s="1" t="s">
         <v>2586</v>
@@ -27133,10 +26125,8 @@
       <c r="J730" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K730" s="1"/>
-      <c r="L730" s="1"/>
-    </row>
-    <row r="731" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="731" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="1" t="s">
         <v>2589</v>
@@ -27157,10 +26147,8 @@
       <c r="J731" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K731" s="1"/>
-      <c r="L731" s="1"/>
-    </row>
-    <row r="732" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="732" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="B732" s="1" t="s">
         <v>2592</v>
@@ -27181,10 +26169,8 @@
       <c r="J732" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K732" s="1"/>
-      <c r="L732" s="1"/>
-    </row>
-    <row r="733" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="733" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="B733" s="1" t="s">
         <v>2595</v>
@@ -27205,10 +26191,8 @@
       <c r="J733" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K733" s="1"/>
-      <c r="L733" s="1"/>
-    </row>
-    <row r="734" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="734" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="B734" s="1" t="s">
         <v>2598</v>
@@ -27229,10 +26213,8 @@
       <c r="J734" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K734" s="1"/>
-      <c r="L734" s="1"/>
-    </row>
-    <row r="735" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="735" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="B735" s="1" t="s">
         <v>2601</v>
@@ -27253,10 +26235,8 @@
       <c r="J735" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K735" s="1"/>
-      <c r="L735" s="1"/>
-    </row>
-    <row r="736" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="736" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="B736" s="1" t="s">
         <v>2604</v>
@@ -27277,10 +26257,8 @@
       <c r="J736" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K736" s="1"/>
-      <c r="L736" s="1"/>
-    </row>
-    <row r="737" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="737" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="1" t="s">
         <v>2607</v>
@@ -27301,10 +26279,8 @@
       <c r="J737" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K737" s="1"/>
-      <c r="L737" s="1"/>
-    </row>
-    <row r="738" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="738" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="B738" s="1" t="s">
         <v>2610</v>
@@ -27325,10 +26301,8 @@
       <c r="J738" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K738" s="1"/>
-      <c r="L738" s="1"/>
-    </row>
-    <row r="739" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="739" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="B739" s="1" t="s">
         <v>2613</v>
@@ -27349,10 +26323,8 @@
       <c r="J739" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K739" s="1"/>
-      <c r="L739" s="1"/>
-    </row>
-    <row r="740" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="740" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="B740" s="1" t="s">
         <v>2616</v>
@@ -27373,10 +26345,8 @@
       <c r="J740" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K740" s="1"/>
-      <c r="L740" s="1"/>
-    </row>
-    <row r="741" spans="1:12" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="741" spans="1:10" ht="43.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="1" t="s">
         <v>2619</v>
@@ -27397,10 +26367,8 @@
       <c r="J741" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="K741" s="1"/>
-      <c r="L741" s="1"/>
-    </row>
-    <row r="742" spans="1:12" collapsed="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="742" spans="1:10" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
